--- a/UKA PnL Output.xlsx
+++ b/UKA PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-310687.1865583686</v>
+        <v>-297492.34464888</v>
       </c>
       <c r="E2" t="n">
-        <v>-915813.9945583686</v>
+        <v>-838985.3186488799</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-287795.0826466359</v>
+        <v>-274346.7257192133</v>
       </c>
       <c r="E3" t="n">
-        <v>-849821.690646636</v>
+        <v>-772761.4997192132</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-261287.0960820394</v>
+        <v>-247649.0402107218</v>
       </c>
       <c r="E4" t="n">
-        <v>-780213.5040820395</v>
+        <v>-702985.6142107218</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-232145.3363714392</v>
+        <v>-218396.7848604997</v>
       </c>
       <c r="E5" t="n">
-        <v>-707971.5443714391</v>
+        <v>-630655.1588604997</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-201577.5931184748</v>
+        <v>-187802.5315288553</v>
       </c>
       <c r="E6" t="n">
-        <v>-634303.6011184748</v>
+        <v>-556982.7055288553</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-170850.2679490158</v>
+        <v>-157127.7235030442</v>
       </c>
       <c r="E7" t="n">
-        <v>-560476.0759490158</v>
+        <v>-483229.6975030442</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-141134.4520183097</v>
+        <v>-127531.141448417</v>
       </c>
       <c r="E8" t="n">
-        <v>-487660.0600183096</v>
+        <v>-410554.915448417</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-113391.4508887914</v>
+        <v>-99957.47135851596</v>
       </c>
       <c r="E9" t="n">
-        <v>-416816.8588887914</v>
+        <v>-339903.0453585159</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-88309.42033909008</v>
+        <v>-75076.89067120747</v>
       </c>
       <c r="E10" t="n">
-        <v>-348634.62833909</v>
+        <v>-271944.2646712075</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-66289.45741585783</v>
+        <v>-53273.52826709296</v>
       </c>
       <c r="E11" t="n">
-        <v>-283514.4654158578</v>
+        <v>-207062.7022670929</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-47470.53656850573</v>
+        <v>-34671.97511252983</v>
       </c>
       <c r="E12" t="n">
-        <v>-221595.3445685057</v>
+        <v>-145382.9491125298</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-31778.82894108739</v>
+        <v>-19187.38934023395</v>
       </c>
       <c r="E13" t="n">
-        <v>-162803.4369410874</v>
+        <v>-86820.16334023396</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-18987.29885296009</v>
+        <v>-6585.230559499618</v>
       </c>
       <c r="E14" t="n">
-        <v>-106911.7068529601</v>
+        <v>-31139.80455949963</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-8774.41769935869</v>
+        <v>3460.339164741404</v>
       </c>
       <c r="E15" t="n">
-        <v>-53598.62569935865</v>
+        <v>21983.96516474139</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-774.7692292894883</v>
+        <v>11316.41766714937</v>
       </c>
       <c r="E16" t="n">
-        <v>-2498.777229289451</v>
+        <v>72918.24366714935</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5381.937902946887</v>
+        <v>17353.01093883434</v>
       </c>
       <c r="E17" t="n">
-        <v>46758.12990294692</v>
+        <v>122033.0369388343</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>10044.03152785553</v>
+        <v>21916.83436640678</v>
       </c>
       <c r="E18" t="n">
-        <v>94520.42352785559</v>
+        <v>169675.0603664068</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>13521.92500105418</v>
+        <v>25315.91292341494</v>
       </c>
       <c r="E19" t="n">
-        <v>141098.5170010542</v>
+        <v>216152.3389234149</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>16080.83817898592</v>
+        <v>27812.73474070612</v>
       </c>
       <c r="E20" t="n">
-        <v>186757.630178986</v>
+        <v>261727.3607407061</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>17939.74682161267</v>
+        <v>29623.51145640987</v>
       </c>
       <c r="E21" t="n">
-        <v>231716.7388216127</v>
+        <v>306616.3374564099</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>19274.32854265283</v>
+        <v>30921.32655734342</v>
       </c>
       <c r="E22" t="n">
-        <v>276151.5205426529</v>
+        <v>350992.3525573434</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>20222.1012210334</v>
+        <v>31841.38840491194</v>
       </c>
       <c r="E23" t="n">
-        <v>320199.4932210334</v>
+        <v>394990.6144049119</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>20888.43440216027</v>
+        <v>32487.09099538867</v>
       </c>
       <c r="E24" t="n">
-        <v>363966.0264021604</v>
+        <v>438714.5169953887</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>21352.55974107816</v>
+        <v>32936.02916797616</v>
       </c>
       <c r="E25" t="n">
-        <v>407530.3517410783</v>
+        <v>482241.6551679762</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>21673.06754115765</v>
+        <v>33245.47235209602</v>
       </c>
       <c r="E26" t="n">
-        <v>450951.0595411577</v>
+        <v>525629.298352096</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>21892.64167002639</v>
+        <v>33457.06205275535</v>
       </c>
       <c r="E27" t="n">
-        <v>494270.8336700265</v>
+        <v>568919.0880527553</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22041.96292890283</v>
+        <v>33600.67220989725</v>
       </c>
       <c r="E28" t="n">
-        <v>537520.3549289028</v>
+        <v>612140.8982098972</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22142.81839661182</v>
+        <v>33697.47579319531</v>
       </c>
       <c r="E29" t="n">
-        <v>580721.4103966119</v>
+        <v>655315.9017931953</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22210.51025154135</v>
+        <v>33762.31450815051</v>
       </c>
       <c r="E30" t="n">
-        <v>623889.3022515414</v>
+        <v>698458.9405081505</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22255.67902273213</v>
+        <v>33805.48818211595</v>
       </c>
       <c r="E31" t="n">
-        <v>667034.671022732</v>
+        <v>741580.314182116</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22285.65656367471</v>
+        <v>33834.07958400671</v>
       </c>
       <c r="E32" t="n">
-        <v>710164.8485636747</v>
+        <v>784687.1055840066</v>
       </c>
     </row>
     <row r="33">
@@ -1006,16 +1006,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22305.45300075589</v>
+        <v>33852.91869288522</v>
       </c>
       <c r="E33" t="n">
-        <v>753284.8450007559</v>
+        <v>827784.1446928852</v>
       </c>
     </row>
     <row r="34">
@@ -1023,16 +1023,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22318.46596841055</v>
+        <v>33865.27412333814</v>
       </c>
       <c r="E34" t="n">
-        <v>796398.0579684107</v>
+        <v>870874.7001233381</v>
       </c>
     </row>
     <row r="35">
@@ -1040,16 +1040,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22326.98357331173</v>
+        <v>33873.34239829322</v>
       </c>
       <c r="E35" t="n">
-        <v>839506.7755733117</v>
+        <v>913960.9683982931</v>
       </c>
     </row>
     <row r="36">
@@ -1057,16 +1057,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22332.53690285326</v>
+        <v>33878.59012073996</v>
       </c>
       <c r="E36" t="n">
-        <v>882612.5289028534</v>
+        <v>957044.41612074</v>
       </c>
     </row>
     <row r="37">
@@ -1074,16 +1074,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22336.14449537458</v>
+        <v>33881.990760852</v>
       </c>
       <c r="E37" t="n">
-        <v>925716.3364953746</v>
+        <v>1000126.016760852</v>
       </c>
     </row>
     <row r="38">
@@ -1091,16 +1091,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22338.48028578014</v>
+        <v>33884.18696844213</v>
       </c>
       <c r="E38" t="n">
-        <v>968818.8722857801</v>
+        <v>1043206.412968442</v>
       </c>
     </row>
     <row r="39">
@@ -1108,16 +1108,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22339.98799852334</v>
+        <v>33885.60088533588</v>
       </c>
       <c r="E39" t="n">
-        <v>1011920.579998523</v>
+        <v>1086286.026885336</v>
       </c>
     </row>
     <row r="40">
@@ -1125,16 +1125,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22340.95846377001</v>
+        <v>33886.50853716535</v>
       </c>
       <c r="E40" t="n">
-        <v>1055021.75046377</v>
+        <v>1129365.134537165</v>
       </c>
     </row>
     <row r="41">
@@ -1142,16 +1142,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22341.58150847218</v>
+        <v>33887.08964875145</v>
       </c>
       <c r="E41" t="n">
-        <v>1098122.573508472</v>
+        <v>1172443.915648751</v>
       </c>
     </row>
     <row r="42">
@@ -1159,16 +1159,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22341.98056173234</v>
+        <v>33887.46078884997</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.172561732</v>
+        <v>1215522.48678885</v>
       </c>
     </row>
     <row r="43">
@@ -1176,16 +1176,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.23559887463</v>
+        <v>33887.69729441369</v>
       </c>
       <c r="E43" t="n">
-        <v>1184323.627598875</v>
+        <v>1258600.923294414</v>
       </c>
     </row>
     <row r="44">
@@ -1193,16 +1193,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.3982734618</v>
+        <v>33887.84769559295</v>
       </c>
       <c r="E44" t="n">
-        <v>1227423.990273462</v>
+        <v>1301679.273695593</v>
       </c>
     </row>
     <row r="45">
@@ -1210,16 +1210,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.50184900358</v>
+        <v>33887.9431604187</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.293849004</v>
+        <v>1344757.569160419</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.56768880743</v>
+        <v>33888.00365112076</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.559688807</v>
+        <v>1387835.829651121</v>
       </c>
     </row>
     <row r="47">
@@ -1244,16 +1244,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.60947970232</v>
+        <v>33888.04192064791</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.801479702</v>
+        <v>1430914.067920648</v>
       </c>
     </row>
   </sheetData>
@@ -1307,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-342940.5349857623</v>
+        <v>-327240.1720357328</v>
       </c>
       <c r="E2" t="n">
-        <v>-948067.3429857623</v>
+        <v>-868733.1460357327</v>
       </c>
     </row>
     <row r="3">
@@ -1324,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-322369.0478143779</v>
+        <v>-305799.6385333538</v>
       </c>
       <c r="E3" t="n">
-        <v>-884395.6558143779</v>
+        <v>-804214.4125333538</v>
       </c>
     </row>
     <row r="4">
@@ -1341,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-293565.8140716222</v>
+        <v>-276765.435827482</v>
       </c>
       <c r="E4" t="n">
-        <v>-812492.2220716223</v>
+        <v>-732102.009827482</v>
       </c>
     </row>
     <row r="5">
@@ -1358,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-257260.2354268202</v>
+        <v>-241045.7165962439</v>
       </c>
       <c r="E5" t="n">
-        <v>-733086.4434268202</v>
+        <v>-653304.090596244</v>
       </c>
     </row>
     <row r="6">
@@ -1375,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-215662.1883875446</v>
+        <v>-200774.2386481147</v>
       </c>
       <c r="E6" t="n">
-        <v>-648388.1963875445</v>
+        <v>-569954.4126481147</v>
       </c>
     </row>
     <row r="7">
@@ -1392,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-171971.9179464886</v>
+        <v>-158850.3642956158</v>
       </c>
       <c r="E7" t="n">
-        <v>-561597.7259464886</v>
+        <v>-484952.3382956159</v>
       </c>
     </row>
     <row r="8">
@@ -1409,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-129598.1559183759</v>
+        <v>-118281.7075458728</v>
       </c>
       <c r="E8" t="n">
-        <v>-476123.7639183759</v>
+        <v>-401305.4815458728</v>
       </c>
     </row>
     <row r="9">
@@ -1426,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-91401.19212214866</v>
+        <v>-81574.04426710203</v>
       </c>
       <c r="E9" t="n">
-        <v>-394826.6001221486</v>
+        <v>-321519.6182671021</v>
       </c>
     </row>
     <row r="10">
@@ -1443,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-59212.91870286386</v>
+        <v>-50351.57983162229</v>
       </c>
       <c r="E10" t="n">
-        <v>-319538.1267028638</v>
+        <v>-247218.9538316223</v>
       </c>
     </row>
     <row r="11">
@@ -1460,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-33722.83772020893</v>
+        <v>-25266.9584434429</v>
       </c>
       <c r="E11" t="n">
-        <v>-250947.8457202089</v>
+        <v>-179056.1324434429</v>
       </c>
     </row>
     <row r="12">
@@ -1477,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-14663.55590607301</v>
+        <v>-6147.575898745838</v>
       </c>
       <c r="E12" t="n">
-        <v>-188788.363906073</v>
+        <v>-116858.5498987459</v>
       </c>
     </row>
     <row r="13">
@@ -1494,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1149.679197738677</v>
+        <v>7732.678155994959</v>
       </c>
       <c r="E13" t="n">
-        <v>-132174.2871977387</v>
+        <v>-59900.09584400506</v>
       </c>
     </row>
     <row r="14">
@@ -1511,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7972.739125179546</v>
+        <v>17365.73995662624</v>
       </c>
       <c r="E14" t="n">
-        <v>-79951.66887482042</v>
+        <v>-7188.834043373776</v>
       </c>
     </row>
     <row r="15">
@@ -1528,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>13856.77547266615</v>
+        <v>23778.29887726939</v>
       </c>
       <c r="E15" t="n">
-        <v>-30967.43252733381</v>
+        <v>42301.92487726938</v>
       </c>
     </row>
     <row r="16">
@@ -1545,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17495.33525904352</v>
+        <v>27885.43178188545</v>
       </c>
       <c r="E16" t="n">
-        <v>15771.32725904356</v>
+        <v>89487.25778188545</v>
       </c>
     </row>
     <row r="17">
@@ -1562,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>19659.11357540538</v>
+        <v>30423.60549495266</v>
       </c>
       <c r="E17" t="n">
-        <v>61035.30557540541</v>
+        <v>135103.6314949527</v>
       </c>
     </row>
     <row r="18">
@@ -1579,16 +1579,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>20900.08684152246</v>
+        <v>31941.06817338032</v>
       </c>
       <c r="E18" t="n">
-        <v>105376.4788415225</v>
+        <v>179699.2941733803</v>
       </c>
     </row>
     <row r="19">
@@ -1596,16 +1596,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>21588.29816535629</v>
+        <v>32820.860374706</v>
       </c>
       <c r="E19" t="n">
-        <v>149164.8901653563</v>
+        <v>223657.286374706</v>
       </c>
     </row>
     <row r="20">
@@ -1613,16 +1613,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>21958.25251233734</v>
+        <v>33316.62874788596</v>
       </c>
       <c r="E20" t="n">
-        <v>192635.0445123374</v>
+        <v>267231.254747886</v>
       </c>
     </row>
     <row r="21">
@@ -1630,16 +1630,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22151.45805376604</v>
+        <v>33588.71835606734</v>
       </c>
       <c r="E21" t="n">
-        <v>235928.4500537661</v>
+        <v>310581.5443560673</v>
       </c>
     </row>
     <row r="22">
@@ -1647,16 +1647,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22249.68751202707</v>
+        <v>33734.43528286486</v>
       </c>
       <c r="E22" t="n">
-        <v>279126.8795120271</v>
+        <v>353805.4612828649</v>
       </c>
     </row>
     <row r="23">
@@ -1664,16 +1664,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>22298.40148065229</v>
+        <v>33810.72072237397</v>
       </c>
       <c r="E23" t="n">
-        <v>322275.7934806523</v>
+        <v>396959.9467223739</v>
       </c>
     </row>
     <row r="24">
@@ -1681,16 +1681,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22322.00802101673</v>
+        <v>33849.8245113978</v>
       </c>
       <c r="E24" t="n">
-        <v>365399.6000210168</v>
+        <v>440077.2505113978</v>
       </c>
     </row>
     <row r="25">
@@ -1698,16 +1698,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22333.20495782122</v>
+        <v>33869.48079257608</v>
       </c>
       <c r="E25" t="n">
-        <v>408510.9969578213</v>
+        <v>483175.1067925761</v>
       </c>
     </row>
     <row r="26">
@@ -1715,16 +1715,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22338.41118525825</v>
+        <v>33879.18368108528</v>
       </c>
       <c r="E26" t="n">
-        <v>451616.4031852583</v>
+        <v>526263.0096810852</v>
       </c>
     </row>
     <row r="27">
@@ -1732,16 +1732,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22340.78761597208</v>
+        <v>33883.89329864501</v>
       </c>
       <c r="E27" t="n">
-        <v>494718.9796159722</v>
+        <v>569345.919298645</v>
       </c>
     </row>
     <row r="28">
@@ -1749,16 +1749,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22341.85392295465</v>
+        <v>33886.14381577222</v>
       </c>
       <c r="E28" t="n">
-        <v>537820.2459229546</v>
+        <v>612426.3698157723</v>
       </c>
     </row>
     <row r="29">
@@ -1766,16 +1766,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22342.32482516943</v>
+        <v>33887.20375479163</v>
       </c>
       <c r="E29" t="n">
-        <v>580920.9168251695</v>
+        <v>655505.6297547916</v>
       </c>
     </row>
     <row r="30">
@@ -1783,16 +1783,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22342.52973812483</v>
+        <v>33887.69628932783</v>
       </c>
       <c r="E30" t="n">
-        <v>624021.3217381248</v>
+        <v>698584.3222893277</v>
       </c>
     </row>
     <row r="31">
@@ -1800,16 +1800,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22342.61769353272</v>
+        <v>33887.92232312784</v>
       </c>
       <c r="E31" t="n">
-        <v>667121.6096935327</v>
+        <v>741662.7483231279</v>
       </c>
     </row>
     <row r="32">
@@ -1817,16 +1817,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22342.65497066125</v>
+        <v>33888.02486124543</v>
       </c>
       <c r="E32" t="n">
-        <v>710221.8469706613</v>
+        <v>784741.0508612454</v>
       </c>
     </row>
     <row r="33">
@@ -1834,16 +1834,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22342.6705845826</v>
+        <v>33888.07088053347</v>
       </c>
       <c r="E33" t="n">
-        <v>753322.0625845826</v>
+        <v>827819.2968805335</v>
       </c>
     </row>
     <row r="34">
@@ -1851,16 +1851,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22342.67705372606</v>
+        <v>33888.09132988014</v>
       </c>
       <c r="E34" t="n">
-        <v>796422.2690537261</v>
+        <v>870897.5173298802</v>
       </c>
     </row>
     <row r="35">
@@ -1868,16 +1868,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22342.67970709284</v>
+        <v>33888.10033362707</v>
       </c>
       <c r="E35" t="n">
-        <v>839522.4717070928</v>
+        <v>913975.726333627</v>
       </c>
     </row>
     <row r="36">
@@ -1885,16 +1885,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22342.68078527132</v>
+        <v>33888.10426432247</v>
       </c>
       <c r="E36" t="n">
-        <v>882622.6727852714</v>
+        <v>957053.9302643224</v>
       </c>
     </row>
     <row r="37">
@@ -1902,16 +1902,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22342.68121961399</v>
+        <v>33888.1059668572</v>
       </c>
       <c r="E37" t="n">
-        <v>925722.873219614</v>
+        <v>1000132.131966857</v>
       </c>
     </row>
     <row r="38">
@@ -1919,16 +1919,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22342.68139319746</v>
+        <v>33888.10669894463</v>
       </c>
       <c r="E38" t="n">
-        <v>968823.0733931975</v>
+        <v>1043210.332698945</v>
       </c>
     </row>
     <row r="39">
@@ -1936,16 +1936,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22342.68146206039</v>
+        <v>33888.10701163407</v>
       </c>
       <c r="E39" t="n">
-        <v>1011923.27346206</v>
+        <v>1086288.533011634</v>
       </c>
     </row>
     <row r="40">
@@ -1953,16 +1953,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22342.68148919438</v>
+        <v>33888.10714436557</v>
       </c>
       <c r="E40" t="n">
-        <v>1055023.473489194</v>
+        <v>1129366.733144365</v>
       </c>
     </row>
     <row r="41">
@@ -1970,16 +1970,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22342.68149981932</v>
+        <v>33888.10720038744</v>
       </c>
       <c r="E41" t="n">
-        <v>1098123.673499819</v>
+        <v>1172444.933200387</v>
       </c>
     </row>
     <row r="42">
@@ -1987,16 +1987,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22342.68150395593</v>
+        <v>33888.10722390887</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.873503956</v>
+        <v>1215523.133223909</v>
       </c>
     </row>
     <row r="43">
@@ -2004,16 +2004,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.68150555796</v>
+        <v>33888.10723373714</v>
       </c>
       <c r="E43" t="n">
-        <v>1184324.073505558</v>
+        <v>1258601.333233737</v>
       </c>
     </row>
     <row r="44">
@@ -2021,16 +2021,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.6815061754</v>
+        <v>33888.10723782572</v>
       </c>
       <c r="E44" t="n">
-        <v>1227424.273506175</v>
+        <v>1301679.533237826</v>
       </c>
     </row>
     <row r="45">
@@ -2038,16 +2038,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.68150641233</v>
+        <v>33888.10723951974</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.473506412</v>
+        <v>1344757.73323952</v>
       </c>
     </row>
     <row r="46">
@@ -2055,16 +2055,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.68150650288</v>
+        <v>33888.10724021903</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.673506503</v>
+        <v>1387835.933240219</v>
       </c>
     </row>
     <row r="47">
@@ -2072,16 +2072,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.68150653736</v>
+        <v>33888.10724050674</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.873506537</v>
+        <v>1430914.133240507</v>
       </c>
     </row>
   </sheetData>
@@ -2135,16 +2135,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E2" t="n">
-        <v>-974604.1264934416</v>
+        <v>-899224.8667592937</v>
       </c>
     </row>
     <row r="3">
@@ -2152,16 +2152,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E3" t="n">
-        <v>-931503.9264934416</v>
+        <v>-856146.6667592938</v>
       </c>
     </row>
     <row r="4">
@@ -2169,16 +2169,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E4" t="n">
-        <v>-888403.7264934417</v>
+        <v>-813068.4667592938</v>
       </c>
     </row>
     <row r="5">
@@ -2186,16 +2186,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E5" t="n">
-        <v>-845303.5264934417</v>
+        <v>-769990.2667592939</v>
       </c>
     </row>
     <row r="6">
@@ -2203,16 +2203,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-271522.3184934417</v>
+        <v>-259826.8927592938</v>
       </c>
       <c r="E6" t="n">
-        <v>-704248.3264934416</v>
+        <v>-629007.0667592938</v>
       </c>
     </row>
     <row r="7">
@@ -2220,16 +2220,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-173567.3184934416</v>
+        <v>-161921.8927592938</v>
       </c>
       <c r="E7" t="n">
-        <v>-563193.1264934416</v>
+        <v>-488023.8667592938</v>
       </c>
     </row>
     <row r="8">
@@ -2237,16 +2237,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75612.31849344161</v>
+        <v>-64016.89275929378</v>
       </c>
       <c r="E8" t="n">
-        <v>-422137.9264934416</v>
+        <v>-347040.6667592938</v>
       </c>
     </row>
     <row r="9">
@@ -2254,16 +2254,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E9" t="n">
-        <v>-281082.7264934416</v>
+        <v>-206057.4667592938</v>
       </c>
     </row>
     <row r="10">
@@ -2271,16 +2271,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E10" t="n">
-        <v>-237982.5264934416</v>
+        <v>-162979.2667592938</v>
       </c>
     </row>
     <row r="11">
@@ -2288,16 +2288,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E11" t="n">
-        <v>-194882.3264934416</v>
+        <v>-119901.0667592938</v>
       </c>
     </row>
     <row r="12">
@@ -2305,16 +2305,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E12" t="n">
-        <v>-151782.1264934416</v>
+        <v>-76822.86675929381</v>
       </c>
     </row>
     <row r="13">
@@ -2322,16 +2322,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E13" t="n">
-        <v>-108681.9264934416</v>
+        <v>-33744.66675929382</v>
       </c>
     </row>
     <row r="14">
@@ -2339,16 +2339,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E14" t="n">
-        <v>-65581.72649344159</v>
+        <v>9333.533240706191</v>
       </c>
     </row>
     <row r="15">
@@ -2356,16 +2356,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E15" t="n">
-        <v>-22481.52649344158</v>
+        <v>52411.73324070619</v>
       </c>
     </row>
     <row r="16">
@@ -2373,16 +2373,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E16" t="n">
-        <v>20618.67350655843</v>
+        <v>95489.93324070619</v>
       </c>
     </row>
     <row r="17">
@@ -2390,16 +2390,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E17" t="n">
-        <v>63718.87350655843</v>
+        <v>138568.1332407062</v>
       </c>
     </row>
     <row r="18">
@@ -2407,16 +2407,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E18" t="n">
-        <v>106819.0735065584</v>
+        <v>181646.3332407062</v>
       </c>
     </row>
     <row r="19">
@@ -2424,16 +2424,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E19" t="n">
-        <v>149919.2735065584</v>
+        <v>224724.5332407062</v>
       </c>
     </row>
     <row r="20">
@@ -2441,16 +2441,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E20" t="n">
-        <v>193019.4735065584</v>
+        <v>267802.7332407062</v>
       </c>
     </row>
     <row r="21">
@@ -2458,16 +2458,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E21" t="n">
-        <v>236119.6735065584</v>
+        <v>310880.9332407062</v>
       </c>
     </row>
     <row r="22">
@@ -2475,16 +2475,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E22" t="n">
-        <v>279219.8735065585</v>
+        <v>353959.1332407062</v>
       </c>
     </row>
     <row r="23">
@@ -2492,16 +2492,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E23" t="n">
-        <v>322320.0735065584</v>
+        <v>397037.3332407062</v>
       </c>
     </row>
     <row r="24">
@@ -2509,16 +2509,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E24" t="n">
-        <v>365420.2735065584</v>
+        <v>440115.5332407062</v>
       </c>
     </row>
     <row r="25">
@@ -2526,16 +2526,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E25" t="n">
-        <v>408520.4735065585</v>
+        <v>483193.7332407062</v>
       </c>
     </row>
     <row r="26">
@@ -2543,16 +2543,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E26" t="n">
-        <v>451620.6735065585</v>
+        <v>526271.9332407062</v>
       </c>
     </row>
     <row r="27">
@@ -2560,16 +2560,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E27" t="n">
-        <v>494720.8735065585</v>
+        <v>569350.1332407062</v>
       </c>
     </row>
     <row r="28">
@@ -2577,16 +2577,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E28" t="n">
-        <v>537821.0735065584</v>
+        <v>612428.3332407062</v>
       </c>
     </row>
     <row r="29">
@@ -2594,16 +2594,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E29" t="n">
-        <v>580921.2735065585</v>
+        <v>655506.5332407062</v>
       </c>
     </row>
     <row r="30">
@@ -2611,16 +2611,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E30" t="n">
-        <v>624021.4735065585</v>
+        <v>698584.7332407061</v>
       </c>
     </row>
     <row r="31">
@@ -2628,16 +2628,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E31" t="n">
-        <v>667121.6735065584</v>
+        <v>741662.9332407062</v>
       </c>
     </row>
     <row r="32">
@@ -2645,16 +2645,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E32" t="n">
-        <v>710221.8735065585</v>
+        <v>784741.1332407062</v>
       </c>
     </row>
     <row r="33">
@@ -2662,16 +2662,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E33" t="n">
-        <v>753322.0735065584</v>
+        <v>827819.3332407062</v>
       </c>
     </row>
     <row r="34">
@@ -2679,16 +2679,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E34" t="n">
-        <v>796422.2735065585</v>
+        <v>870897.5332407062</v>
       </c>
     </row>
     <row r="35">
@@ -2696,16 +2696,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E35" t="n">
-        <v>839522.4735065585</v>
+        <v>913975.7332407061</v>
       </c>
     </row>
     <row r="36">
@@ -2713,16 +2713,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E36" t="n">
-        <v>882622.6735065585</v>
+        <v>957053.9332407062</v>
       </c>
     </row>
     <row r="37">
@@ -2730,16 +2730,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E37" t="n">
-        <v>925722.8735065585</v>
+        <v>1000132.133240706</v>
       </c>
     </row>
     <row r="38">
@@ -2747,16 +2747,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E38" t="n">
-        <v>968823.0735065584</v>
+        <v>1043210.333240706</v>
       </c>
     </row>
     <row r="39">
@@ -2764,16 +2764,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E39" t="n">
-        <v>1011923.273506559</v>
+        <v>1086288.533240706</v>
       </c>
     </row>
     <row r="40">
@@ -2781,16 +2781,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E40" t="n">
-        <v>1055023.473506558</v>
+        <v>1129366.733240706</v>
       </c>
     </row>
     <row r="41">
@@ -2798,16 +2798,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E41" t="n">
-        <v>1098123.673506558</v>
+        <v>1172444.933240706</v>
       </c>
     </row>
     <row r="42">
@@ -2815,16 +2815,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.873506558</v>
+        <v>1215523.133240706</v>
       </c>
     </row>
     <row r="43">
@@ -2832,16 +2832,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E43" t="n">
-        <v>1184324.073506558</v>
+        <v>1258601.333240706</v>
       </c>
     </row>
     <row r="44">
@@ -2849,16 +2849,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E44" t="n">
-        <v>1227424.273506558</v>
+        <v>1301679.533240706</v>
       </c>
     </row>
     <row r="45">
@@ -2866,16 +2866,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.473506558</v>
+        <v>1344757.733240706</v>
       </c>
     </row>
     <row r="46">
@@ -2883,16 +2883,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.673506558</v>
+        <v>1387835.933240706</v>
       </c>
     </row>
     <row r="47">
@@ -2900,16 +2900,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.873506558</v>
+        <v>1430914.133240706</v>
       </c>
     </row>
   </sheetData>
@@ -2963,16 +2963,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E2" t="n">
-        <v>-974604.1264934416</v>
+        <v>-899224.8667592937</v>
       </c>
     </row>
     <row r="3">
@@ -2980,16 +2980,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E3" t="n">
-        <v>-931503.9264934416</v>
+        <v>-856146.6667592938</v>
       </c>
     </row>
     <row r="4">
@@ -2997,16 +2997,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E4" t="n">
-        <v>-888403.7264934417</v>
+        <v>-813068.4667592938</v>
       </c>
     </row>
     <row r="5">
@@ -3014,16 +3014,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E5" t="n">
-        <v>-845303.5264934417</v>
+        <v>-769990.2667592939</v>
       </c>
     </row>
     <row r="6">
@@ -3031,16 +3031,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-271522.3184934417</v>
+        <v>-259826.8927592938</v>
       </c>
       <c r="E6" t="n">
-        <v>-704248.3264934416</v>
+        <v>-629007.0667592938</v>
       </c>
     </row>
     <row r="7">
@@ -3048,16 +3048,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-173567.3184934416</v>
+        <v>-161921.8927592938</v>
       </c>
       <c r="E7" t="n">
-        <v>-563193.1264934416</v>
+        <v>-488023.8667592938</v>
       </c>
     </row>
     <row r="8">
@@ -3065,16 +3065,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75612.31849344161</v>
+        <v>-64016.89275929378</v>
       </c>
       <c r="E8" t="n">
-        <v>-422137.9264934416</v>
+        <v>-347040.6667592938</v>
       </c>
     </row>
     <row r="9">
@@ -3082,16 +3082,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E9" t="n">
-        <v>-281082.7264934416</v>
+        <v>-206057.4667592938</v>
       </c>
     </row>
     <row r="10">
@@ -3099,16 +3099,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E10" t="n">
-        <v>-237982.5264934416</v>
+        <v>-162979.2667592938</v>
       </c>
     </row>
     <row r="11">
@@ -3116,16 +3116,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E11" t="n">
-        <v>-194882.3264934416</v>
+        <v>-119901.0667592938</v>
       </c>
     </row>
     <row r="12">
@@ -3133,16 +3133,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E12" t="n">
-        <v>-151782.1264934416</v>
+        <v>-76822.86675929381</v>
       </c>
     </row>
     <row r="13">
@@ -3150,16 +3150,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E13" t="n">
-        <v>-108681.9264934416</v>
+        <v>-33744.66675929382</v>
       </c>
     </row>
     <row r="14">
@@ -3167,16 +3167,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E14" t="n">
-        <v>-65581.72649344159</v>
+        <v>9333.533240706191</v>
       </c>
     </row>
     <row r="15">
@@ -3184,16 +3184,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E15" t="n">
-        <v>-22481.52649344158</v>
+        <v>52411.73324070619</v>
       </c>
     </row>
     <row r="16">
@@ -3201,16 +3201,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E16" t="n">
-        <v>20618.67350655843</v>
+        <v>95489.93324070619</v>
       </c>
     </row>
     <row r="17">
@@ -3218,16 +3218,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E17" t="n">
-        <v>63718.87350655843</v>
+        <v>138568.1332407062</v>
       </c>
     </row>
     <row r="18">
@@ -3235,16 +3235,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E18" t="n">
-        <v>106819.0735065584</v>
+        <v>181646.3332407062</v>
       </c>
     </row>
     <row r="19">
@@ -3252,16 +3252,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E19" t="n">
-        <v>149919.2735065584</v>
+        <v>224724.5332407062</v>
       </c>
     </row>
     <row r="20">
@@ -3269,16 +3269,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E20" t="n">
-        <v>193019.4735065584</v>
+        <v>267802.7332407062</v>
       </c>
     </row>
     <row r="21">
@@ -3286,16 +3286,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E21" t="n">
-        <v>236119.6735065584</v>
+        <v>310880.9332407062</v>
       </c>
     </row>
     <row r="22">
@@ -3303,16 +3303,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E22" t="n">
-        <v>279219.8735065585</v>
+        <v>353959.1332407062</v>
       </c>
     </row>
     <row r="23">
@@ -3320,16 +3320,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E23" t="n">
-        <v>322320.0735065584</v>
+        <v>397037.3332407062</v>
       </c>
     </row>
     <row r="24">
@@ -3337,16 +3337,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E24" t="n">
-        <v>365420.2735065584</v>
+        <v>440115.5332407062</v>
       </c>
     </row>
     <row r="25">
@@ -3354,16 +3354,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E25" t="n">
-        <v>408520.4735065585</v>
+        <v>483193.7332407062</v>
       </c>
     </row>
     <row r="26">
@@ -3371,16 +3371,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E26" t="n">
-        <v>451620.6735065585</v>
+        <v>526271.9332407062</v>
       </c>
     </row>
     <row r="27">
@@ -3388,16 +3388,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E27" t="n">
-        <v>494720.8735065585</v>
+        <v>569350.1332407062</v>
       </c>
     </row>
     <row r="28">
@@ -3405,16 +3405,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E28" t="n">
-        <v>537821.0735065584</v>
+        <v>612428.3332407062</v>
       </c>
     </row>
     <row r="29">
@@ -3422,16 +3422,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E29" t="n">
-        <v>580921.2735065585</v>
+        <v>655506.5332407062</v>
       </c>
     </row>
     <row r="30">
@@ -3439,16 +3439,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E30" t="n">
-        <v>624021.4735065585</v>
+        <v>698584.7332407061</v>
       </c>
     </row>
     <row r="31">
@@ -3456,16 +3456,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E31" t="n">
-        <v>667121.6735065584</v>
+        <v>741662.9332407062</v>
       </c>
     </row>
     <row r="32">
@@ -3473,16 +3473,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E32" t="n">
-        <v>710221.8735065585</v>
+        <v>784741.1332407062</v>
       </c>
     </row>
     <row r="33">
@@ -3490,16 +3490,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E33" t="n">
-        <v>753322.0735065584</v>
+        <v>827819.3332407062</v>
       </c>
     </row>
     <row r="34">
@@ -3507,16 +3507,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E34" t="n">
-        <v>796422.2735065585</v>
+        <v>870897.5332407062</v>
       </c>
     </row>
     <row r="35">
@@ -3524,16 +3524,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E35" t="n">
-        <v>839522.4735065585</v>
+        <v>913975.7332407061</v>
       </c>
     </row>
     <row r="36">
@@ -3541,16 +3541,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E36" t="n">
-        <v>882622.6735065585</v>
+        <v>957053.9332407062</v>
       </c>
     </row>
     <row r="37">
@@ -3558,16 +3558,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E37" t="n">
-        <v>925722.8735065585</v>
+        <v>1000132.133240706</v>
       </c>
     </row>
     <row r="38">
@@ -3575,16 +3575,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E38" t="n">
-        <v>968823.0735065584</v>
+        <v>1043210.333240706</v>
       </c>
     </row>
     <row r="39">
@@ -3592,16 +3592,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E39" t="n">
-        <v>1011923.273506559</v>
+        <v>1086288.533240706</v>
       </c>
     </row>
     <row r="40">
@@ -3609,16 +3609,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E40" t="n">
-        <v>1055023.473506558</v>
+        <v>1129366.733240706</v>
       </c>
     </row>
     <row r="41">
@@ -3626,16 +3626,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E41" t="n">
-        <v>1098123.673506558</v>
+        <v>1172444.933240706</v>
       </c>
     </row>
     <row r="42">
@@ -3643,16 +3643,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.873506558</v>
+        <v>1215523.133240706</v>
       </c>
     </row>
     <row r="43">
@@ -3660,16 +3660,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E43" t="n">
-        <v>1184324.073506558</v>
+        <v>1258601.333240706</v>
       </c>
     </row>
     <row r="44">
@@ -3677,16 +3677,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E44" t="n">
-        <v>1227424.273506558</v>
+        <v>1301679.533240706</v>
       </c>
     </row>
     <row r="45">
@@ -3694,16 +3694,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.473506558</v>
+        <v>1344757.733240706</v>
       </c>
     </row>
     <row r="46">
@@ -3711,16 +3711,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.673506558</v>
+        <v>1387835.933240706</v>
       </c>
     </row>
     <row r="47">
@@ -3728,16 +3728,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.873506558</v>
+        <v>1430914.133240706</v>
       </c>
     </row>
   </sheetData>
@@ -3791,16 +3791,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E2" t="n">
-        <v>-974604.1264934416</v>
+        <v>-899224.8667592937</v>
       </c>
     </row>
     <row r="3">
@@ -3808,16 +3808,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E3" t="n">
-        <v>-931503.9264934416</v>
+        <v>-856146.6667592938</v>
       </c>
     </row>
     <row r="4">
@@ -3825,16 +3825,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E4" t="n">
-        <v>-888403.7264934417</v>
+        <v>-813068.4667592938</v>
       </c>
     </row>
     <row r="5">
@@ -3842,16 +3842,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E5" t="n">
-        <v>-845303.5264934417</v>
+        <v>-769990.2667592939</v>
       </c>
     </row>
     <row r="6">
@@ -3859,16 +3859,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-271522.3184934417</v>
+        <v>-259826.8927592938</v>
       </c>
       <c r="E6" t="n">
-        <v>-704248.3264934416</v>
+        <v>-629007.0667592938</v>
       </c>
     </row>
     <row r="7">
@@ -3876,16 +3876,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-173567.3184934416</v>
+        <v>-161921.8927592938</v>
       </c>
       <c r="E7" t="n">
-        <v>-563193.1264934416</v>
+        <v>-488023.8667592938</v>
       </c>
     </row>
     <row r="8">
@@ -3893,16 +3893,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75612.31849344161</v>
+        <v>-64016.89275929378</v>
       </c>
       <c r="E8" t="n">
-        <v>-422137.9264934416</v>
+        <v>-347040.6667592938</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E9" t="n">
-        <v>-281082.7264934416</v>
+        <v>-206057.4667592938</v>
       </c>
     </row>
     <row r="10">
@@ -3927,16 +3927,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E10" t="n">
-        <v>-237982.5264934416</v>
+        <v>-162979.2667592938</v>
       </c>
     </row>
     <row r="11">
@@ -3944,16 +3944,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E11" t="n">
-        <v>-194882.3264934416</v>
+        <v>-119901.0667592938</v>
       </c>
     </row>
     <row r="12">
@@ -3961,16 +3961,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E12" t="n">
-        <v>-151782.1264934416</v>
+        <v>-76822.86675929381</v>
       </c>
     </row>
     <row r="13">
@@ -3978,16 +3978,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E13" t="n">
-        <v>-108681.9264934416</v>
+        <v>-33744.66675929382</v>
       </c>
     </row>
     <row r="14">
@@ -3995,16 +3995,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E14" t="n">
-        <v>-65581.72649344159</v>
+        <v>9333.533240706191</v>
       </c>
     </row>
     <row r="15">
@@ -4012,16 +4012,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E15" t="n">
-        <v>-22481.52649344158</v>
+        <v>52411.73324070619</v>
       </c>
     </row>
     <row r="16">
@@ -4029,16 +4029,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E16" t="n">
-        <v>20618.67350655843</v>
+        <v>95489.93324070619</v>
       </c>
     </row>
     <row r="17">
@@ -4046,16 +4046,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E17" t="n">
-        <v>63718.87350655843</v>
+        <v>138568.1332407062</v>
       </c>
     </row>
     <row r="18">
@@ -4063,16 +4063,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E18" t="n">
-        <v>106819.0735065584</v>
+        <v>181646.3332407062</v>
       </c>
     </row>
     <row r="19">
@@ -4080,16 +4080,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E19" t="n">
-        <v>149919.2735065584</v>
+        <v>224724.5332407062</v>
       </c>
     </row>
     <row r="20">
@@ -4097,16 +4097,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E20" t="n">
-        <v>193019.4735065584</v>
+        <v>267802.7332407062</v>
       </c>
     </row>
     <row r="21">
@@ -4114,16 +4114,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E21" t="n">
-        <v>236119.6735065584</v>
+        <v>310880.9332407062</v>
       </c>
     </row>
     <row r="22">
@@ -4131,16 +4131,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E22" t="n">
-        <v>279219.8735065585</v>
+        <v>353959.1332407062</v>
       </c>
     </row>
     <row r="23">
@@ -4148,16 +4148,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E23" t="n">
-        <v>322320.0735065584</v>
+        <v>397037.3332407062</v>
       </c>
     </row>
     <row r="24">
@@ -4165,16 +4165,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E24" t="n">
-        <v>365420.2735065584</v>
+        <v>440115.5332407062</v>
       </c>
     </row>
     <row r="25">
@@ -4182,16 +4182,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E25" t="n">
-        <v>408520.4735065585</v>
+        <v>483193.7332407062</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E26" t="n">
-        <v>451620.6735065585</v>
+        <v>526271.9332407062</v>
       </c>
     </row>
     <row r="27">
@@ -4216,16 +4216,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E27" t="n">
-        <v>494720.8735065585</v>
+        <v>569350.1332407062</v>
       </c>
     </row>
     <row r="28">
@@ -4233,16 +4233,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E28" t="n">
-        <v>537821.0735065584</v>
+        <v>612428.3332407062</v>
       </c>
     </row>
     <row r="29">
@@ -4250,16 +4250,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E29" t="n">
-        <v>580921.2735065585</v>
+        <v>655506.5332407062</v>
       </c>
     </row>
     <row r="30">
@@ -4267,16 +4267,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E30" t="n">
-        <v>624021.4735065585</v>
+        <v>698584.7332407061</v>
       </c>
     </row>
     <row r="31">
@@ -4284,16 +4284,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E31" t="n">
-        <v>667121.6735065584</v>
+        <v>741662.9332407062</v>
       </c>
     </row>
     <row r="32">
@@ -4301,16 +4301,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E32" t="n">
-        <v>710221.8735065585</v>
+        <v>784741.1332407062</v>
       </c>
     </row>
     <row r="33">
@@ -4318,16 +4318,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E33" t="n">
-        <v>753322.0735065584</v>
+        <v>827819.3332407062</v>
       </c>
     </row>
     <row r="34">
@@ -4335,16 +4335,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E34" t="n">
-        <v>796422.2735065585</v>
+        <v>870897.5332407062</v>
       </c>
     </row>
     <row r="35">
@@ -4352,16 +4352,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E35" t="n">
-        <v>839522.4735065585</v>
+        <v>913975.7332407061</v>
       </c>
     </row>
     <row r="36">
@@ -4369,16 +4369,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E36" t="n">
-        <v>882622.6735065585</v>
+        <v>957053.9332407062</v>
       </c>
     </row>
     <row r="37">
@@ -4386,16 +4386,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E37" t="n">
-        <v>925722.8735065585</v>
+        <v>1000132.133240706</v>
       </c>
     </row>
     <row r="38">
@@ -4403,16 +4403,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E38" t="n">
-        <v>968823.0735065584</v>
+        <v>1043210.333240706</v>
       </c>
     </row>
     <row r="39">
@@ -4420,16 +4420,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E39" t="n">
-        <v>1011923.273506559</v>
+        <v>1086288.533240706</v>
       </c>
     </row>
     <row r="40">
@@ -4437,16 +4437,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E40" t="n">
-        <v>1055023.473506558</v>
+        <v>1129366.733240706</v>
       </c>
     </row>
     <row r="41">
@@ -4454,16 +4454,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E41" t="n">
-        <v>1098123.673506558</v>
+        <v>1172444.933240706</v>
       </c>
     </row>
     <row r="42">
@@ -4471,16 +4471,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.873506558</v>
+        <v>1215523.133240706</v>
       </c>
     </row>
     <row r="43">
@@ -4488,16 +4488,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E43" t="n">
-        <v>1184324.073506558</v>
+        <v>1258601.333240706</v>
       </c>
     </row>
     <row r="44">
@@ -4505,16 +4505,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E44" t="n">
-        <v>1227424.273506558</v>
+        <v>1301679.533240706</v>
       </c>
     </row>
     <row r="45">
@@ -4522,16 +4522,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.473506558</v>
+        <v>1344757.733240706</v>
       </c>
     </row>
     <row r="46">
@@ -4539,16 +4539,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.673506558</v>
+        <v>1387835.933240706</v>
       </c>
     </row>
     <row r="47">
@@ -4556,16 +4556,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.873506558</v>
+        <v>1430914.133240706</v>
       </c>
     </row>
   </sheetData>
@@ -4619,16 +4619,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E2" t="n">
-        <v>-974604.1264934416</v>
+        <v>-899224.8667592937</v>
       </c>
     </row>
     <row r="3">
@@ -4636,16 +4636,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E3" t="n">
-        <v>-931503.9264934416</v>
+        <v>-856146.6667592938</v>
       </c>
     </row>
     <row r="4">
@@ -4653,16 +4653,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E4" t="n">
-        <v>-888403.7264934417</v>
+        <v>-813068.4667592938</v>
       </c>
     </row>
     <row r="5">
@@ -4670,16 +4670,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E5" t="n">
-        <v>-845303.5264934417</v>
+        <v>-769990.2667592939</v>
       </c>
     </row>
     <row r="6">
@@ -4687,16 +4687,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-271522.3184934417</v>
+        <v>-259826.8927592938</v>
       </c>
       <c r="E6" t="n">
-        <v>-704248.3264934416</v>
+        <v>-629007.0667592938</v>
       </c>
     </row>
     <row r="7">
@@ -4704,16 +4704,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-173567.3184934416</v>
+        <v>-161921.8927592938</v>
       </c>
       <c r="E7" t="n">
-        <v>-563193.1264934416</v>
+        <v>-488023.8667592938</v>
       </c>
     </row>
     <row r="8">
@@ -4721,16 +4721,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75612.31849344161</v>
+        <v>-64016.89275929378</v>
       </c>
       <c r="E8" t="n">
-        <v>-422137.9264934416</v>
+        <v>-347040.6667592938</v>
       </c>
     </row>
     <row r="9">
@@ -4738,16 +4738,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E9" t="n">
-        <v>-281082.7264934416</v>
+        <v>-206057.4667592938</v>
       </c>
     </row>
     <row r="10">
@@ -4755,16 +4755,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E10" t="n">
-        <v>-237982.5264934416</v>
+        <v>-162979.2667592938</v>
       </c>
     </row>
     <row r="11">
@@ -4772,16 +4772,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E11" t="n">
-        <v>-194882.3264934416</v>
+        <v>-119901.0667592938</v>
       </c>
     </row>
     <row r="12">
@@ -4789,16 +4789,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E12" t="n">
-        <v>-151782.1264934416</v>
+        <v>-76822.86675929381</v>
       </c>
     </row>
     <row r="13">
@@ -4806,16 +4806,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E13" t="n">
-        <v>-108681.9264934416</v>
+        <v>-33744.66675929382</v>
       </c>
     </row>
     <row r="14">
@@ -4823,16 +4823,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E14" t="n">
-        <v>-65581.72649344159</v>
+        <v>9333.533240706191</v>
       </c>
     </row>
     <row r="15">
@@ -4840,16 +4840,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E15" t="n">
-        <v>-22481.52649344158</v>
+        <v>52411.73324070619</v>
       </c>
     </row>
     <row r="16">
@@ -4857,16 +4857,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E16" t="n">
-        <v>20618.67350655843</v>
+        <v>95489.93324070619</v>
       </c>
     </row>
     <row r="17">
@@ -4874,16 +4874,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E17" t="n">
-        <v>63718.87350655843</v>
+        <v>138568.1332407062</v>
       </c>
     </row>
     <row r="18">
@@ -4891,16 +4891,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E18" t="n">
-        <v>106819.0735065584</v>
+        <v>181646.3332407062</v>
       </c>
     </row>
     <row r="19">
@@ -4908,16 +4908,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E19" t="n">
-        <v>149919.2735065584</v>
+        <v>224724.5332407062</v>
       </c>
     </row>
     <row r="20">
@@ -4925,16 +4925,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E20" t="n">
-        <v>193019.4735065584</v>
+        <v>267802.7332407062</v>
       </c>
     </row>
     <row r="21">
@@ -4942,16 +4942,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E21" t="n">
-        <v>236119.6735065584</v>
+        <v>310880.9332407062</v>
       </c>
     </row>
     <row r="22">
@@ -4959,16 +4959,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E22" t="n">
-        <v>279219.8735065585</v>
+        <v>353959.1332407062</v>
       </c>
     </row>
     <row r="23">
@@ -4976,16 +4976,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E23" t="n">
-        <v>322320.0735065584</v>
+        <v>397037.3332407062</v>
       </c>
     </row>
     <row r="24">
@@ -4993,16 +4993,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E24" t="n">
-        <v>365420.2735065584</v>
+        <v>440115.5332407062</v>
       </c>
     </row>
     <row r="25">
@@ -5010,16 +5010,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E25" t="n">
-        <v>408520.4735065585</v>
+        <v>483193.7332407062</v>
       </c>
     </row>
     <row r="26">
@@ -5027,16 +5027,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E26" t="n">
-        <v>451620.6735065585</v>
+        <v>526271.9332407062</v>
       </c>
     </row>
     <row r="27">
@@ -5044,16 +5044,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E27" t="n">
-        <v>494720.8735065585</v>
+        <v>569350.1332407062</v>
       </c>
     </row>
     <row r="28">
@@ -5061,16 +5061,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E28" t="n">
-        <v>537821.0735065584</v>
+        <v>612428.3332407062</v>
       </c>
     </row>
     <row r="29">
@@ -5078,16 +5078,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E29" t="n">
-        <v>580921.2735065585</v>
+        <v>655506.5332407062</v>
       </c>
     </row>
     <row r="30">
@@ -5095,16 +5095,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E30" t="n">
-        <v>624021.4735065585</v>
+        <v>698584.7332407061</v>
       </c>
     </row>
     <row r="31">
@@ -5112,16 +5112,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E31" t="n">
-        <v>667121.6735065584</v>
+        <v>741662.9332407062</v>
       </c>
     </row>
     <row r="32">
@@ -5129,16 +5129,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E32" t="n">
-        <v>710221.8735065585</v>
+        <v>784741.1332407062</v>
       </c>
     </row>
     <row r="33">
@@ -5146,16 +5146,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E33" t="n">
-        <v>753322.0735065584</v>
+        <v>827819.3332407062</v>
       </c>
     </row>
     <row r="34">
@@ -5163,16 +5163,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E34" t="n">
-        <v>796422.2735065585</v>
+        <v>870897.5332407062</v>
       </c>
     </row>
     <row r="35">
@@ -5180,16 +5180,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E35" t="n">
-        <v>839522.4735065585</v>
+        <v>913975.7332407061</v>
       </c>
     </row>
     <row r="36">
@@ -5197,16 +5197,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E36" t="n">
-        <v>882622.6735065585</v>
+        <v>957053.9332407062</v>
       </c>
     </row>
     <row r="37">
@@ -5214,16 +5214,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E37" t="n">
-        <v>925722.8735065585</v>
+        <v>1000132.133240706</v>
       </c>
     </row>
     <row r="38">
@@ -5231,16 +5231,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E38" t="n">
-        <v>968823.0735065584</v>
+        <v>1043210.333240706</v>
       </c>
     </row>
     <row r="39">
@@ -5248,16 +5248,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E39" t="n">
-        <v>1011923.273506559</v>
+        <v>1086288.533240706</v>
       </c>
     </row>
     <row r="40">
@@ -5265,16 +5265,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E40" t="n">
-        <v>1055023.473506558</v>
+        <v>1129366.733240706</v>
       </c>
     </row>
     <row r="41">
@@ -5282,16 +5282,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E41" t="n">
-        <v>1098123.673506558</v>
+        <v>1172444.933240706</v>
       </c>
     </row>
     <row r="42">
@@ -5299,16 +5299,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.873506558</v>
+        <v>1215523.133240706</v>
       </c>
     </row>
     <row r="43">
@@ -5316,16 +5316,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E43" t="n">
-        <v>1184324.073506558</v>
+        <v>1258601.333240706</v>
       </c>
     </row>
     <row r="44">
@@ -5333,16 +5333,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E44" t="n">
-        <v>1227424.273506558</v>
+        <v>1301679.533240706</v>
       </c>
     </row>
     <row r="45">
@@ -5350,16 +5350,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.473506558</v>
+        <v>1344757.733240706</v>
       </c>
     </row>
     <row r="46">
@@ -5367,16 +5367,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.673506558</v>
+        <v>1387835.933240706</v>
       </c>
     </row>
     <row r="47">
@@ -5384,16 +5384,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.873506558</v>
+        <v>1430914.133240706</v>
       </c>
     </row>
   </sheetData>
@@ -5447,16 +5447,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E2" t="n">
-        <v>-974604.1264934416</v>
+        <v>-899224.8667592937</v>
       </c>
     </row>
     <row r="3">
@@ -5464,16 +5464,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E3" t="n">
-        <v>-931503.9264934416</v>
+        <v>-856146.6667592938</v>
       </c>
     </row>
     <row r="4">
@@ -5481,16 +5481,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E4" t="n">
-        <v>-888403.7264934417</v>
+        <v>-813068.4667592938</v>
       </c>
     </row>
     <row r="5">
@@ -5498,16 +5498,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E5" t="n">
-        <v>-845303.5264934417</v>
+        <v>-769990.2667592939</v>
       </c>
     </row>
     <row r="6">
@@ -5515,16 +5515,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-271522.3184934417</v>
+        <v>-259826.8927592938</v>
       </c>
       <c r="E6" t="n">
-        <v>-704248.3264934416</v>
+        <v>-629007.0667592938</v>
       </c>
     </row>
     <row r="7">
@@ -5532,16 +5532,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-173567.3184934416</v>
+        <v>-161921.8927592938</v>
       </c>
       <c r="E7" t="n">
-        <v>-563193.1264934416</v>
+        <v>-488023.8667592938</v>
       </c>
     </row>
     <row r="8">
@@ -5549,16 +5549,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75612.31849344161</v>
+        <v>-64016.89275929378</v>
       </c>
       <c r="E8" t="n">
-        <v>-422137.9264934416</v>
+        <v>-347040.6667592938</v>
       </c>
     </row>
     <row r="9">
@@ -5566,16 +5566,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E9" t="n">
-        <v>-281082.7264934416</v>
+        <v>-206057.4667592938</v>
       </c>
     </row>
     <row r="10">
@@ -5583,16 +5583,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E10" t="n">
-        <v>-237982.5264934416</v>
+        <v>-162979.2667592938</v>
       </c>
     </row>
     <row r="11">
@@ -5600,16 +5600,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E11" t="n">
-        <v>-194882.3264934416</v>
+        <v>-119901.0667592938</v>
       </c>
     </row>
     <row r="12">
@@ -5617,16 +5617,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E12" t="n">
-        <v>-151782.1264934416</v>
+        <v>-76822.86675929381</v>
       </c>
     </row>
     <row r="13">
@@ -5634,16 +5634,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E13" t="n">
-        <v>-108681.9264934416</v>
+        <v>-33744.66675929382</v>
       </c>
     </row>
     <row r="14">
@@ -5651,16 +5651,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E14" t="n">
-        <v>-65581.72649344159</v>
+        <v>9333.533240706191</v>
       </c>
     </row>
     <row r="15">
@@ -5668,16 +5668,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E15" t="n">
-        <v>-22481.52649344158</v>
+        <v>52411.73324070619</v>
       </c>
     </row>
     <row r="16">
@@ -5685,16 +5685,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E16" t="n">
-        <v>20618.67350655843</v>
+        <v>95489.93324070619</v>
       </c>
     </row>
     <row r="17">
@@ -5702,16 +5702,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E17" t="n">
-        <v>63718.87350655843</v>
+        <v>138568.1332407062</v>
       </c>
     </row>
     <row r="18">
@@ -5719,16 +5719,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E18" t="n">
-        <v>106819.0735065584</v>
+        <v>181646.3332407062</v>
       </c>
     </row>
     <row r="19">
@@ -5736,16 +5736,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E19" t="n">
-        <v>149919.2735065584</v>
+        <v>224724.5332407062</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E20" t="n">
-        <v>193019.4735065584</v>
+        <v>267802.7332407062</v>
       </c>
     </row>
     <row r="21">
@@ -5770,16 +5770,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E21" t="n">
-        <v>236119.6735065584</v>
+        <v>310880.9332407062</v>
       </c>
     </row>
     <row r="22">
@@ -5787,16 +5787,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E22" t="n">
-        <v>279219.8735065585</v>
+        <v>353959.1332407062</v>
       </c>
     </row>
     <row r="23">
@@ -5804,16 +5804,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E23" t="n">
-        <v>322320.0735065584</v>
+        <v>397037.3332407062</v>
       </c>
     </row>
     <row r="24">
@@ -5821,16 +5821,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E24" t="n">
-        <v>365420.2735065584</v>
+        <v>440115.5332407062</v>
       </c>
     </row>
     <row r="25">
@@ -5838,16 +5838,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E25" t="n">
-        <v>408520.4735065585</v>
+        <v>483193.7332407062</v>
       </c>
     </row>
     <row r="26">
@@ -5855,16 +5855,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E26" t="n">
-        <v>451620.6735065585</v>
+        <v>526271.9332407062</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E27" t="n">
-        <v>494720.8735065585</v>
+        <v>569350.1332407062</v>
       </c>
     </row>
     <row r="28">
@@ -5889,16 +5889,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E28" t="n">
-        <v>537821.0735065584</v>
+        <v>612428.3332407062</v>
       </c>
     </row>
     <row r="29">
@@ -5906,16 +5906,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E29" t="n">
-        <v>580921.2735065585</v>
+        <v>655506.5332407062</v>
       </c>
     </row>
     <row r="30">
@@ -5923,16 +5923,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E30" t="n">
-        <v>624021.4735065585</v>
+        <v>698584.7332407061</v>
       </c>
     </row>
     <row r="31">
@@ -5940,16 +5940,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E31" t="n">
-        <v>667121.6735065584</v>
+        <v>741662.9332407062</v>
       </c>
     </row>
     <row r="32">
@@ -5957,16 +5957,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E32" t="n">
-        <v>710221.8735065585</v>
+        <v>784741.1332407062</v>
       </c>
     </row>
     <row r="33">
@@ -5974,16 +5974,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E33" t="n">
-        <v>753322.0735065584</v>
+        <v>827819.3332407062</v>
       </c>
     </row>
     <row r="34">
@@ -5991,16 +5991,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E34" t="n">
-        <v>796422.2735065585</v>
+        <v>870897.5332407062</v>
       </c>
     </row>
     <row r="35">
@@ -6008,16 +6008,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E35" t="n">
-        <v>839522.4735065585</v>
+        <v>913975.7332407061</v>
       </c>
     </row>
     <row r="36">
@@ -6025,16 +6025,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E36" t="n">
-        <v>882622.6735065585</v>
+        <v>957053.9332407062</v>
       </c>
     </row>
     <row r="37">
@@ -6042,16 +6042,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E37" t="n">
-        <v>925722.8735065585</v>
+        <v>1000132.133240706</v>
       </c>
     </row>
     <row r="38">
@@ -6059,16 +6059,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E38" t="n">
-        <v>968823.0735065584</v>
+        <v>1043210.333240706</v>
       </c>
     </row>
     <row r="39">
@@ -6076,16 +6076,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E39" t="n">
-        <v>1011923.273506559</v>
+        <v>1086288.533240706</v>
       </c>
     </row>
     <row r="40">
@@ -6093,16 +6093,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E40" t="n">
-        <v>1055023.473506558</v>
+        <v>1129366.733240706</v>
       </c>
     </row>
     <row r="41">
@@ -6110,16 +6110,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E41" t="n">
-        <v>1098123.673506558</v>
+        <v>1172444.933240706</v>
       </c>
     </row>
     <row r="42">
@@ -6127,16 +6127,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.873506558</v>
+        <v>1215523.133240706</v>
       </c>
     </row>
     <row r="43">
@@ -6144,16 +6144,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E43" t="n">
-        <v>1184324.073506558</v>
+        <v>1258601.333240706</v>
       </c>
     </row>
     <row r="44">
@@ -6161,16 +6161,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E44" t="n">
-        <v>1227424.273506558</v>
+        <v>1301679.533240706</v>
       </c>
     </row>
     <row r="45">
@@ -6178,16 +6178,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.473506558</v>
+        <v>1344757.733240706</v>
       </c>
     </row>
     <row r="46">
@@ -6195,16 +6195,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.673506558</v>
+        <v>1387835.933240706</v>
       </c>
     </row>
     <row r="47">
@@ -6212,16 +6212,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.873506558</v>
+        <v>1430914.133240706</v>
       </c>
     </row>
   </sheetData>
@@ -6275,16 +6275,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-605126.8080000001</v>
+        <v>-541492.9739999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E2" t="n">
-        <v>-974604.1264934416</v>
+        <v>-899224.8667592937</v>
       </c>
     </row>
     <row r="3">
@@ -6292,16 +6292,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-562026.608</v>
+        <v>-498414.774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-369477.3184934416</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E3" t="n">
-        <v>-931503.9264934416</v>
+        <v>-856146.6667592938</v>
       </c>
     </row>
     <row r="4">
@@ -6309,16 +6309,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-518926.408</v>
+        <v>-455336.574</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E4" t="n">
-        <v>-888403.7264934417</v>
+        <v>-813068.4667592938</v>
       </c>
     </row>
     <row r="5">
@@ -6326,16 +6326,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-475826.208</v>
+        <v>-412258.374</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-369477.3184934417</v>
+        <v>-357731.8927592938</v>
       </c>
       <c r="E5" t="n">
-        <v>-845303.5264934417</v>
+        <v>-769990.2667592939</v>
       </c>
     </row>
     <row r="6">
@@ -6343,16 +6343,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-432726.008</v>
+        <v>-369180.174</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-271522.3184934417</v>
+        <v>-259826.8927592938</v>
       </c>
       <c r="E6" t="n">
-        <v>-704248.3264934416</v>
+        <v>-629007.0667592938</v>
       </c>
     </row>
     <row r="7">
@@ -6360,16 +6360,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-389625.808</v>
+        <v>-326101.974</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-173567.3184934416</v>
+        <v>-161921.8927592938</v>
       </c>
       <c r="E7" t="n">
-        <v>-563193.1264934416</v>
+        <v>-488023.8667592938</v>
       </c>
     </row>
     <row r="8">
@@ -6377,16 +6377,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-346525.6079999999</v>
+        <v>-283023.774</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-75612.31849344161</v>
+        <v>-64016.89275929378</v>
       </c>
       <c r="E8" t="n">
-        <v>-422137.9264934416</v>
+        <v>-347040.6667592938</v>
       </c>
     </row>
     <row r="9">
@@ -6394,16 +6394,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-303425.4079999999</v>
+        <v>-239945.574</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E9" t="n">
-        <v>-281082.7264934416</v>
+        <v>-206057.4667592938</v>
       </c>
     </row>
     <row r="10">
@@ -6411,16 +6411,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-260325.208</v>
+        <v>-196867.374</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E10" t="n">
-        <v>-237982.5264934416</v>
+        <v>-162979.2667592938</v>
       </c>
     </row>
     <row r="11">
@@ -6428,16 +6428,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-217225.008</v>
+        <v>-153789.174</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E11" t="n">
-        <v>-194882.3264934416</v>
+        <v>-119901.0667592938</v>
       </c>
     </row>
     <row r="12">
@@ -6445,16 +6445,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-174124.808</v>
+        <v>-110710.974</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E12" t="n">
-        <v>-151782.1264934416</v>
+        <v>-76822.86675929381</v>
       </c>
     </row>
     <row r="13">
@@ -6462,16 +6462,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-131024.608</v>
+        <v>-67632.77400000002</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E13" t="n">
-        <v>-108681.9264934416</v>
+        <v>-33744.66675929382</v>
       </c>
     </row>
     <row r="14">
@@ -6479,16 +6479,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-87924.40799999997</v>
+        <v>-24554.57400000001</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E14" t="n">
-        <v>-65581.72649344159</v>
+        <v>9333.533240706191</v>
       </c>
     </row>
     <row r="15">
@@ -6496,16 +6496,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>-44824.20799999996</v>
+        <v>18523.62599999999</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E15" t="n">
-        <v>-22481.52649344158</v>
+        <v>52411.73324070619</v>
       </c>
     </row>
     <row r="16">
@@ -6513,16 +6513,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>-1724.007999999963</v>
+        <v>61601.82599999999</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E16" t="n">
-        <v>20618.67350655843</v>
+        <v>95489.93324070619</v>
       </c>
     </row>
     <row r="17">
@@ -6530,16 +6530,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>41376.19200000004</v>
+        <v>104680.026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E17" t="n">
-        <v>63718.87350655843</v>
+        <v>138568.1332407062</v>
       </c>
     </row>
     <row r="18">
@@ -6547,16 +6547,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>84476.39200000005</v>
+        <v>147758.226</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E18" t="n">
-        <v>106819.0735065584</v>
+        <v>181646.3332407062</v>
       </c>
     </row>
     <row r="19">
@@ -6564,16 +6564,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>127576.592</v>
+        <v>190836.426</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E19" t="n">
-        <v>149919.2735065584</v>
+        <v>224724.5332407062</v>
       </c>
     </row>
     <row r="20">
@@ -6581,16 +6581,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>170676.792</v>
+        <v>233914.626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E20" t="n">
-        <v>193019.4735065584</v>
+        <v>267802.7332407062</v>
       </c>
     </row>
     <row r="21">
@@ -6598,16 +6598,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>213776.992</v>
+        <v>276992.826</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E21" t="n">
-        <v>236119.6735065584</v>
+        <v>310880.9332407062</v>
       </c>
     </row>
     <row r="22">
@@ -6615,16 +6615,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>256877.1920000001</v>
+        <v>320071.026</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E22" t="n">
-        <v>279219.8735065585</v>
+        <v>353959.1332407062</v>
       </c>
     </row>
     <row r="23">
@@ -6632,16 +6632,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>299977.3920000001</v>
+        <v>363149.226</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E23" t="n">
-        <v>322320.0735065584</v>
+        <v>397037.3332407062</v>
       </c>
     </row>
     <row r="24">
@@ -6649,16 +6649,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>343077.5920000001</v>
+        <v>406227.426</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E24" t="n">
-        <v>365420.2735065584</v>
+        <v>440115.5332407062</v>
       </c>
     </row>
     <row r="25">
@@ -6666,16 +6666,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>386177.7920000001</v>
+        <v>449305.626</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E25" t="n">
-        <v>408520.4735065585</v>
+        <v>483193.7332407062</v>
       </c>
     </row>
     <row r="26">
@@ -6683,16 +6683,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>429277.9920000001</v>
+        <v>492383.826</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E26" t="n">
-        <v>451620.6735065585</v>
+        <v>526271.9332407062</v>
       </c>
     </row>
     <row r="27">
@@ -6700,16 +6700,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>472378.1920000001</v>
+        <v>535462.026</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E27" t="n">
-        <v>494720.8735065585</v>
+        <v>569350.1332407062</v>
       </c>
     </row>
     <row r="28">
@@ -6717,16 +6717,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>515478.392</v>
+        <v>578540.226</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E28" t="n">
-        <v>537821.0735065584</v>
+        <v>612428.3332407062</v>
       </c>
     </row>
     <row r="29">
@@ -6734,16 +6734,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>558578.5920000001</v>
+        <v>621618.426</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E29" t="n">
-        <v>580921.2735065585</v>
+        <v>655506.5332407062</v>
       </c>
     </row>
     <row r="30">
@@ -6751,16 +6751,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>601678.792</v>
+        <v>664696.6259999999</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E30" t="n">
-        <v>624021.4735065585</v>
+        <v>698584.7332407061</v>
       </c>
     </row>
     <row r="31">
@@ -6768,16 +6768,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>644778.992</v>
+        <v>707774.826</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E31" t="n">
-        <v>667121.6735065584</v>
+        <v>741662.9332407062</v>
       </c>
     </row>
     <row r="32">
@@ -6785,16 +6785,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>687879.192</v>
+        <v>750853.026</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E32" t="n">
-        <v>710221.8735065585</v>
+        <v>784741.1332407062</v>
       </c>
     </row>
     <row r="33">
@@ -6802,16 +6802,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>730979.392</v>
+        <v>793931.226</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E33" t="n">
-        <v>753322.0735065584</v>
+        <v>827819.3332407062</v>
       </c>
     </row>
     <row r="34">
@@ -6819,16 +6819,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>774079.5920000001</v>
+        <v>837009.426</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E34" t="n">
-        <v>796422.2735065585</v>
+        <v>870897.5332407062</v>
       </c>
     </row>
     <row r="35">
@@ -6836,16 +6836,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>817179.792</v>
+        <v>880087.6259999999</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E35" t="n">
-        <v>839522.4735065585</v>
+        <v>913975.7332407061</v>
       </c>
     </row>
     <row r="36">
@@ -6853,16 +6853,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>860279.9920000001</v>
+        <v>923165.826</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E36" t="n">
-        <v>882622.6735065585</v>
+        <v>957053.9332407062</v>
       </c>
     </row>
     <row r="37">
@@ -6870,16 +6870,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>903380.192</v>
+        <v>966244.026</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E37" t="n">
-        <v>925722.8735065585</v>
+        <v>1000132.133240706</v>
       </c>
     </row>
     <row r="38">
@@ -6887,16 +6887,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>946480.392</v>
+        <v>1009322.226</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E38" t="n">
-        <v>968823.0735065584</v>
+        <v>1043210.333240706</v>
       </c>
     </row>
     <row r="39">
@@ -6904,16 +6904,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>989580.5920000001</v>
+        <v>1052400.426</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E39" t="n">
-        <v>1011923.273506559</v>
+        <v>1086288.533240706</v>
       </c>
     </row>
     <row r="40">
@@ -6921,16 +6921,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1032680.792</v>
+        <v>1095478.626</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E40" t="n">
-        <v>1055023.473506558</v>
+        <v>1129366.733240706</v>
       </c>
     </row>
     <row r="41">
@@ -6938,16 +6938,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1075780.992</v>
+        <v>1138556.826</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E41" t="n">
-        <v>1098123.673506558</v>
+        <v>1172444.933240706</v>
       </c>
     </row>
     <row r="42">
@@ -6955,16 +6955,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1118881.192</v>
+        <v>1181635.026</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E42" t="n">
-        <v>1141223.873506558</v>
+        <v>1215523.133240706</v>
       </c>
     </row>
     <row r="43">
@@ -6972,16 +6972,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1161981.392</v>
+        <v>1224713.226</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E43" t="n">
-        <v>1184324.073506558</v>
+        <v>1258601.333240706</v>
       </c>
     </row>
     <row r="44">
@@ -6989,16 +6989,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1205081.592</v>
+        <v>1267791.426</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E44" t="n">
-        <v>1227424.273506558</v>
+        <v>1301679.533240706</v>
       </c>
     </row>
     <row r="45">
@@ -7006,16 +7006,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1248181.792</v>
+        <v>1310869.626</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E45" t="n">
-        <v>1270524.473506558</v>
+        <v>1344757.733240706</v>
       </c>
     </row>
     <row r="46">
@@ -7023,16 +7023,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1291281.992</v>
+        <v>1353947.826</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E46" t="n">
-        <v>1313624.673506558</v>
+        <v>1387835.933240706</v>
       </c>
     </row>
     <row r="47">
@@ -7040,16 +7040,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1334382.192</v>
+        <v>1397026.026</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>22342.68150655839</v>
+        <v>33888.1072407062</v>
       </c>
       <c r="E47" t="n">
-        <v>1356724.873506558</v>
+        <v>1430914.133240706</v>
       </c>
     </row>
   </sheetData>

--- a/UKA PnL Output.xlsx
+++ b/UKA PnL Output.xlsx
@@ -479,16 +479,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-297492.34464888</v>
+        <v>-316133.2150852308</v>
       </c>
       <c r="E2" t="n">
-        <v>-838985.3186488799</v>
+        <v>-881478.9190852307</v>
       </c>
     </row>
     <row r="3">
@@ -496,16 +496,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-274346.7257192133</v>
+        <v>-293196.7635349416</v>
       </c>
       <c r="E3" t="n">
-        <v>-772761.4997192132</v>
+        <v>-815583.0675349415</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-247649.0402107218</v>
+        <v>-265831.19271745</v>
       </c>
       <c r="E4" t="n">
-        <v>-702985.6142107218</v>
+        <v>-745258.0967174498</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-218396.7848604997</v>
+        <v>-235096.429409388</v>
       </c>
       <c r="E5" t="n">
-        <v>-630655.1588604997</v>
+        <v>-671563.9334093878</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +547,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-187802.5315288553</v>
+        <v>-202416.3740767114</v>
       </c>
       <c r="E6" t="n">
-        <v>-556982.7055288553</v>
+        <v>-595924.4780767113</v>
       </c>
     </row>
     <row r="7">
@@ -564,16 +564,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-157127.7235030442</v>
+        <v>-169352.7429137127</v>
       </c>
       <c r="E7" t="n">
-        <v>-483229.6975030442</v>
+        <v>-519901.4469137126</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-127531.141448417</v>
+        <v>-137380.5845761882</v>
       </c>
       <c r="E8" t="n">
-        <v>-410554.915448417</v>
+        <v>-444969.8885761881</v>
       </c>
     </row>
     <row r="9">
@@ -598,16 +598,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-99957.47135851596</v>
+        <v>-107713.5932613772</v>
       </c>
       <c r="E9" t="n">
-        <v>-339903.0453585159</v>
+        <v>-372343.4972613771</v>
       </c>
     </row>
     <row r="10">
@@ -615,16 +615,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-75076.89067120747</v>
+        <v>-81204.24614283565</v>
       </c>
       <c r="E10" t="n">
-        <v>-271944.2646712075</v>
+        <v>-302874.7501428355</v>
       </c>
     </row>
     <row r="11">
@@ -632,16 +632,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-53273.52826709296</v>
+        <v>-58320.12986222519</v>
       </c>
       <c r="E11" t="n">
-        <v>-207062.7022670929</v>
+        <v>-237031.2338622251</v>
       </c>
     </row>
     <row r="12">
@@ -649,16 +649,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-34671.97511252983</v>
+        <v>-39180.80775181123</v>
       </c>
       <c r="E12" t="n">
-        <v>-145382.9491125298</v>
+        <v>-174932.5117518111</v>
       </c>
     </row>
     <row r="13">
@@ -666,16 +666,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-19187.38934023395</v>
+        <v>-23631.78502417919</v>
       </c>
       <c r="E13" t="n">
-        <v>-86820.16334023396</v>
+        <v>-116424.089024179</v>
       </c>
     </row>
     <row r="14">
@@ -683,16 +683,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6585.230559499618</v>
+        <v>-11332.37745201249</v>
       </c>
       <c r="E14" t="n">
-        <v>-31139.80455949963</v>
+        <v>-61165.28145201235</v>
       </c>
     </row>
     <row r="15">
@@ -700,16 +700,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3460.339164741404</v>
+        <v>-1839.539244830095</v>
       </c>
       <c r="E15" t="n">
-        <v>21983.96516474139</v>
+        <v>-8713.043244829949</v>
       </c>
     </row>
     <row r="16">
@@ -717,16 +717,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11316.41766714937</v>
+        <v>5323.236693812582</v>
       </c>
       <c r="E16" t="n">
-        <v>72918.24366714935</v>
+        <v>41409.13269381274</v>
       </c>
     </row>
     <row r="17">
@@ -734,16 +734,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>17353.01093883434</v>
+        <v>10616.31260795063</v>
       </c>
       <c r="E17" t="n">
-        <v>122033.0369388343</v>
+        <v>89661.60860795078</v>
       </c>
     </row>
     <row r="18">
@@ -751,16 +751,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21916.83436640678</v>
+        <v>14453.18862645768</v>
       </c>
       <c r="E18" t="n">
-        <v>169675.0603664068</v>
+        <v>136457.8846264578</v>
       </c>
     </row>
     <row r="19">
@@ -768,16 +768,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>25315.91292341494</v>
+        <v>17185.51104526506</v>
       </c>
       <c r="E19" t="n">
-        <v>216152.3389234149</v>
+        <v>182149.6070452652</v>
       </c>
     </row>
     <row r="20">
@@ -785,16 +785,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>27812.73474070612</v>
+        <v>19099.58439796257</v>
       </c>
       <c r="E20" t="n">
-        <v>261727.3607407061</v>
+        <v>227023.0803979627</v>
       </c>
     </row>
     <row r="21">
@@ -802,16 +802,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>29623.51145640987</v>
+        <v>20420.26303140678</v>
       </c>
       <c r="E21" t="n">
-        <v>306616.3374564099</v>
+        <v>271303.1590314069</v>
       </c>
     </row>
     <row r="22">
@@ -819,16 +819,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>30921.32655734342</v>
+        <v>21318.81546256003</v>
       </c>
       <c r="E22" t="n">
-        <v>350992.3525573434</v>
+        <v>315161.1114625602</v>
       </c>
     </row>
     <row r="23">
@@ -836,16 +836,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>31841.38840491194</v>
+        <v>21922.28251671919</v>
       </c>
       <c r="E23" t="n">
-        <v>394990.6144049119</v>
+        <v>358723.9785167194</v>
       </c>
     </row>
     <row r="24">
@@ -853,16 +853,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>32487.09099538867</v>
+        <v>22322.7321110155</v>
       </c>
       <c r="E24" t="n">
-        <v>438714.5169953887</v>
+        <v>402083.8281110157</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>32936.02916797616</v>
+        <v>22585.5252260767</v>
       </c>
       <c r="E25" t="n">
-        <v>482241.6551679762</v>
+        <v>445306.0212260769</v>
       </c>
     </row>
     <row r="26">
@@ -887,16 +887,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33245.47235209602</v>
+        <v>22756.21596460616</v>
       </c>
       <c r="E26" t="n">
-        <v>525629.298352096</v>
+        <v>488436.1119646063</v>
       </c>
     </row>
     <row r="27">
@@ -904,16 +904,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33457.06205275535</v>
+        <v>22866.0322543961</v>
       </c>
       <c r="E27" t="n">
-        <v>568919.0880527553</v>
+        <v>531505.3282543963</v>
       </c>
     </row>
     <row r="28">
@@ -921,16 +921,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33600.67220989725</v>
+        <v>22936.06331811468</v>
       </c>
       <c r="E28" t="n">
-        <v>612140.8982098972</v>
+        <v>574534.7593181148</v>
       </c>
     </row>
     <row r="29">
@@ -938,16 +938,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33697.47579319531</v>
+        <v>22980.35942792628</v>
       </c>
       <c r="E29" t="n">
-        <v>655315.9017931953</v>
+        <v>617538.4554279264</v>
       </c>
     </row>
     <row r="30">
@@ -955,16 +955,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33762.31450815051</v>
+        <v>23008.16644981347</v>
       </c>
       <c r="E30" t="n">
-        <v>698458.9405081505</v>
+        <v>660525.6624498137</v>
       </c>
     </row>
     <row r="31">
@@ -972,16 +972,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33805.48818211595</v>
+        <v>23025.50056185591</v>
       </c>
       <c r="E31" t="n">
-        <v>741580.314182116</v>
+        <v>703502.3965618561</v>
       </c>
     </row>
     <row r="32">
@@ -989,16 +989,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33834.07958400671</v>
+        <v>23036.23634647191</v>
       </c>
       <c r="E32" t="n">
-        <v>784687.1055840066</v>
+        <v>746472.5323464721</v>
       </c>
     </row>
     <row r="33">
@@ -1006,16 +1006,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33852.91869288522</v>
+        <v>23042.84574500631</v>
       </c>
       <c r="E33" t="n">
-        <v>827784.1446928852</v>
+        <v>789438.5417450065</v>
       </c>
     </row>
     <row r="34">
@@ -1023,16 +1023,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33865.27412333814</v>
+        <v>23046.89227034141</v>
       </c>
       <c r="E34" t="n">
-        <v>870874.7001233381</v>
+        <v>832401.9882703415</v>
       </c>
     </row>
     <row r="35">
@@ -1040,16 +1040,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33873.34239829322</v>
+        <v>23049.35704637302</v>
       </c>
       <c r="E35" t="n">
-        <v>913960.9683982931</v>
+        <v>875363.8530463732</v>
       </c>
     </row>
     <row r="36">
@@ -1057,16 +1057,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33878.59012073996</v>
+        <v>23050.85127747998</v>
       </c>
       <c r="E36" t="n">
-        <v>957044.41612074</v>
+        <v>918324.7472774802</v>
       </c>
     </row>
     <row r="37">
@@ -1074,16 +1074,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33881.990760852</v>
+        <v>23051.75318484624</v>
       </c>
       <c r="E37" t="n">
-        <v>1000126.016760852</v>
+        <v>961285.0491848465</v>
       </c>
     </row>
     <row r="38">
@@ -1091,16 +1091,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33884.18696844213</v>
+        <v>23052.29538302216</v>
       </c>
       <c r="E38" t="n">
-        <v>1043206.412968442</v>
+        <v>1004244.991383022</v>
       </c>
     </row>
     <row r="39">
@@ -1108,16 +1108,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33885.60088533588</v>
+        <v>23052.62012946653</v>
       </c>
       <c r="E39" t="n">
-        <v>1086286.026885336</v>
+        <v>1047204.716129467</v>
       </c>
     </row>
     <row r="40">
@@ -1125,16 +1125,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33886.50853716535</v>
+        <v>23052.81397248578</v>
       </c>
       <c r="E40" t="n">
-        <v>1129365.134537165</v>
+        <v>1090164.309972486</v>
       </c>
     </row>
     <row r="41">
@@ -1142,16 +1142,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33887.08964875145</v>
+        <v>23052.92931676835</v>
       </c>
       <c r="E41" t="n">
-        <v>1172443.915648751</v>
+        <v>1133123.825316769</v>
       </c>
     </row>
     <row r="42">
@@ -1159,16 +1159,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33887.46078884997</v>
+        <v>23052.99775440978</v>
       </c>
       <c r="E42" t="n">
-        <v>1215522.48678885</v>
+        <v>1176083.29375441</v>
       </c>
     </row>
     <row r="43">
@@ -1176,16 +1176,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33887.69729441369</v>
+        <v>23053.03825419247</v>
       </c>
       <c r="E43" t="n">
-        <v>1258600.923294414</v>
+        <v>1219042.734254193</v>
       </c>
     </row>
     <row r="44">
@@ -1193,16 +1193,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33887.84769559295</v>
+        <v>23053.06216355155</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.273695593</v>
+        <v>1262002.158163552</v>
       </c>
     </row>
     <row r="45">
@@ -1210,16 +1210,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33887.9431604187</v>
+        <v>23053.07624778969</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.569160419</v>
+        <v>1304961.57224779</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.00365112076</v>
+        <v>23053.08452789224</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.829651121</v>
+        <v>1347920.980527892</v>
       </c>
     </row>
     <row r="47">
@@ -1244,16 +1244,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.04192064791</v>
+        <v>23053.08938699741</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.067920648</v>
+        <v>1390880.385386998</v>
       </c>
     </row>
   </sheetData>
@@ -1307,16 +1307,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-327240.1720357328</v>
+        <v>-338890.8675381628</v>
       </c>
       <c r="E2" t="n">
-        <v>-868733.1460357327</v>
+        <v>-904236.5715381627</v>
       </c>
     </row>
     <row r="3">
@@ -1324,16 +1324,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-305799.6385333538</v>
+        <v>-317924.1141928897</v>
       </c>
       <c r="E3" t="n">
-        <v>-804214.4125333538</v>
+        <v>-840310.4181928895</v>
       </c>
     </row>
     <row r="4">
@@ -1341,16 +1341,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-276765.435827482</v>
+        <v>-289131.9023273888</v>
       </c>
       <c r="E4" t="n">
-        <v>-732102.009827482</v>
+        <v>-768558.8063273886</v>
       </c>
     </row>
     <row r="5">
@@ -1358,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-241045.7165962439</v>
+        <v>-253345.5914684467</v>
       </c>
       <c r="E5" t="n">
-        <v>-653304.090596244</v>
+        <v>-689813.0954684465</v>
       </c>
     </row>
     <row r="6">
@@ -1375,16 +1375,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-200774.2386481147</v>
+        <v>-212717.0295214282</v>
       </c>
       <c r="E6" t="n">
-        <v>-569954.4126481147</v>
+        <v>-606225.1335214281</v>
       </c>
     </row>
     <row r="7">
@@ -1392,16 +1392,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-158850.3642956158</v>
+        <v>-170247.9958091232</v>
       </c>
       <c r="E7" t="n">
-        <v>-484952.3382956159</v>
+        <v>-520796.6998091231</v>
       </c>
     </row>
     <row r="8">
@@ -1409,16 +1409,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-118281.7075458728</v>
+        <v>-129088.3514616559</v>
       </c>
       <c r="E8" t="n">
-        <v>-401305.4815458728</v>
+        <v>-436677.6554616558</v>
       </c>
     </row>
     <row r="9">
@@ -1426,16 +1426,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-81574.04426710203</v>
+        <v>-91873.42471656835</v>
       </c>
       <c r="E9" t="n">
-        <v>-321519.6182671021</v>
+        <v>-356503.3287165682</v>
       </c>
     </row>
     <row r="10">
@@ -1443,16 +1443,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50351.57983162229</v>
+        <v>-60307.85170516515</v>
       </c>
       <c r="E10" t="n">
-        <v>-247218.9538316223</v>
+        <v>-281978.355705165</v>
       </c>
     </row>
     <row r="11">
@@ -1460,16 +1460,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-25266.9584434429</v>
+        <v>-35065.55713730115</v>
       </c>
       <c r="E11" t="n">
-        <v>-179056.1324434429</v>
+        <v>-213776.661137301</v>
       </c>
     </row>
     <row r="12">
@@ -1477,16 +1477,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6147.575898745838</v>
+        <v>-15948.15121196978</v>
       </c>
       <c r="E12" t="n">
-        <v>-116858.5498987459</v>
+        <v>-151699.8552119696</v>
       </c>
     </row>
     <row r="13">
@@ -1494,16 +1494,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7732.678155994959</v>
+        <v>-2179.021011156633</v>
       </c>
       <c r="E13" t="n">
-        <v>-59900.09584400506</v>
+        <v>-94971.32501115648</v>
       </c>
     </row>
     <row r="14">
@@ -1511,16 +1511,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>17365.73995662624</v>
+        <v>7287.741792181191</v>
       </c>
       <c r="E14" t="n">
-        <v>-7188.834043373776</v>
+        <v>-42545.16220781866</v>
       </c>
     </row>
     <row r="15">
@@ -1528,16 +1528,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>23778.29887726939</v>
+        <v>13522.48728184198</v>
       </c>
       <c r="E15" t="n">
-        <v>42301.92487726938</v>
+        <v>6648.983281842131</v>
       </c>
     </row>
     <row r="16">
@@ -1545,16 +1545,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27885.43178188545</v>
+        <v>17468.34874220914</v>
       </c>
       <c r="E16" t="n">
-        <v>89487.25778188545</v>
+        <v>53554.2447422093</v>
       </c>
     </row>
     <row r="17">
@@ -1562,16 +1562,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>30423.60549495266</v>
+        <v>19875.1766175806</v>
       </c>
       <c r="E17" t="n">
-        <v>135103.6314949527</v>
+        <v>98920.47261758076</v>
       </c>
     </row>
     <row r="18">
@@ -1579,16 +1579,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>31941.06817338032</v>
+        <v>21293.91805037068</v>
       </c>
       <c r="E18" t="n">
-        <v>179699.2941733803</v>
+        <v>143298.6140503708</v>
       </c>
     </row>
     <row r="19">
@@ -1596,16 +1596,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>32820.860374706</v>
+        <v>22104.13424818981</v>
       </c>
       <c r="E19" t="n">
-        <v>223657.286374706</v>
+        <v>187068.23024819</v>
       </c>
     </row>
     <row r="20">
@@ -1613,16 +1613,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>33316.62874788596</v>
+        <v>22553.43772923571</v>
       </c>
       <c r="E20" t="n">
-        <v>267231.254747886</v>
+        <v>230476.9337292359</v>
       </c>
     </row>
     <row r="21">
@@ -1630,16 +1630,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33588.71835606734</v>
+        <v>22795.90095656164</v>
       </c>
       <c r="E21" t="n">
-        <v>310581.5443560673</v>
+        <v>273678.7969565618</v>
       </c>
     </row>
     <row r="22">
@@ -1647,16 +1647,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33734.43528286486</v>
+        <v>22923.47897905482</v>
       </c>
       <c r="E22" t="n">
-        <v>353805.4612828649</v>
+        <v>316765.774979055</v>
       </c>
     </row>
     <row r="23">
@@ -1664,16 +1664,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33810.72072237397</v>
+        <v>22989.05162573862</v>
       </c>
       <c r="E23" t="n">
-        <v>396959.9467223739</v>
+        <v>359790.7476257388</v>
       </c>
     </row>
     <row r="24">
@@ -1681,16 +1681,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33849.8245113978</v>
+        <v>23022.02936881283</v>
       </c>
       <c r="E24" t="n">
-        <v>440077.2505113978</v>
+        <v>402783.1253688131</v>
       </c>
     </row>
     <row r="25">
@@ -1698,16 +1698,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33869.48079257608</v>
+        <v>23038.28303370703</v>
       </c>
       <c r="E25" t="n">
-        <v>483175.1067925761</v>
+        <v>445758.7790337072</v>
       </c>
     </row>
     <row r="26">
@@ -1715,16 +1715,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33879.18368108528</v>
+        <v>23046.14525429566</v>
       </c>
       <c r="E26" t="n">
-        <v>526263.0096810852</v>
+        <v>488726.0412542959</v>
       </c>
     </row>
     <row r="27">
@@ -1732,16 +1732,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33883.89329864501</v>
+        <v>23049.88281856742</v>
       </c>
       <c r="E27" t="n">
-        <v>569345.919298645</v>
+        <v>531689.1788185677</v>
       </c>
     </row>
     <row r="28">
@@ -1749,16 +1749,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33886.14381577222</v>
+        <v>23051.63115819748</v>
       </c>
       <c r="E28" t="n">
-        <v>612426.3698157723</v>
+        <v>574650.3271581976</v>
       </c>
     </row>
     <row r="29">
@@ -1766,16 +1766,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33887.20375479163</v>
+        <v>23052.43683766089</v>
       </c>
       <c r="E29" t="n">
-        <v>655505.6297547916</v>
+        <v>617610.532837661</v>
       </c>
     </row>
     <row r="30">
@@ -1783,16 +1783,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33887.69628932783</v>
+        <v>23052.80299551409</v>
       </c>
       <c r="E30" t="n">
-        <v>698584.3222893277</v>
+        <v>660570.2989955143</v>
       </c>
     </row>
     <row r="31">
@@ -1800,16 +1800,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33887.92232312784</v>
+        <v>23052.9672743044</v>
       </c>
       <c r="E31" t="n">
-        <v>741662.7483231279</v>
+        <v>703529.8632743045</v>
       </c>
     </row>
     <row r="32">
@@ -1817,16 +1817,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33888.02486124543</v>
+        <v>23053.04010409857</v>
       </c>
       <c r="E32" t="n">
-        <v>784741.0508612454</v>
+        <v>746489.3361040988</v>
       </c>
     </row>
     <row r="33">
@@ -1834,16 +1834,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33888.07088053347</v>
+        <v>23053.07203643065</v>
       </c>
       <c r="E33" t="n">
-        <v>827819.2968805335</v>
+        <v>789448.7680364308</v>
       </c>
     </row>
     <row r="34">
@@ -1851,16 +1851,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33888.09132988014</v>
+        <v>23053.08589441207</v>
       </c>
       <c r="E34" t="n">
-        <v>870897.5173298802</v>
+        <v>832408.1818944123</v>
       </c>
     </row>
     <row r="35">
@@ -1868,16 +1868,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33888.10033362707</v>
+        <v>23053.09185168019</v>
       </c>
       <c r="E35" t="n">
-        <v>913975.726333627</v>
+        <v>875367.5878516803</v>
       </c>
     </row>
     <row r="36">
@@ -1885,16 +1885,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33888.10426432247</v>
+        <v>23053.09439019807</v>
       </c>
       <c r="E36" t="n">
-        <v>957053.9302643224</v>
+        <v>918326.9903901983</v>
       </c>
     </row>
     <row r="37">
@@ -1902,16 +1902,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33888.1059668572</v>
+        <v>23053.0954631665</v>
       </c>
       <c r="E37" t="n">
-        <v>1000132.131966857</v>
+        <v>961286.3914631667</v>
       </c>
     </row>
     <row r="38">
@@ -1919,16 +1919,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33888.10669894463</v>
+        <v>23053.09591329465</v>
       </c>
       <c r="E38" t="n">
-        <v>1043210.332698945</v>
+        <v>1004245.791913295</v>
       </c>
     </row>
     <row r="39">
@@ -1936,16 +1936,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33888.10701163407</v>
+        <v>23053.09610082836</v>
       </c>
       <c r="E39" t="n">
-        <v>1086288.533011634</v>
+        <v>1047205.192100829</v>
       </c>
     </row>
     <row r="40">
@@ -1953,16 +1953,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33888.10714436557</v>
+        <v>23053.0961784623</v>
       </c>
       <c r="E40" t="n">
-        <v>1129366.733144365</v>
+        <v>1090164.592178463</v>
       </c>
     </row>
     <row r="41">
@@ -1970,16 +1970,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33888.10720038744</v>
+        <v>23053.09621041248</v>
       </c>
       <c r="E41" t="n">
-        <v>1172444.933200387</v>
+        <v>1133123.992210413</v>
       </c>
     </row>
     <row r="42">
@@ -1987,16 +1987,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33888.10722390887</v>
+        <v>23053.09622349075</v>
       </c>
       <c r="E42" t="n">
-        <v>1215523.133223909</v>
+        <v>1176083.392223491</v>
       </c>
     </row>
     <row r="43">
@@ -2004,16 +2004,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33888.10723373714</v>
+        <v>23053.09622881768</v>
       </c>
       <c r="E43" t="n">
-        <v>1258601.333233737</v>
+        <v>1219042.792228818</v>
       </c>
     </row>
     <row r="44">
@@ -2021,16 +2021,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33888.10723782572</v>
+        <v>23053.09623097756</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.533237826</v>
+        <v>1262002.192230978</v>
       </c>
     </row>
     <row r="45">
@@ -2038,16 +2038,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33888.10723951974</v>
+        <v>23053.09623184971</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.73323952</v>
+        <v>1304961.59223185</v>
       </c>
     </row>
     <row r="46">
@@ -2055,16 +2055,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.10724021903</v>
+        <v>23053.09623220054</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.933240219</v>
+        <v>1347920.992232201</v>
       </c>
     </row>
     <row r="47">
@@ -2072,16 +2072,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.10724050674</v>
+        <v>23053.09623234118</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.133240507</v>
+        <v>1390880.392232341</v>
       </c>
     </row>
   </sheetData>
@@ -2135,16 +2135,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E2" t="n">
-        <v>-899224.8667592937</v>
+        <v>-932832.6077675653</v>
       </c>
     </row>
     <row r="3">
@@ -2152,16 +2152,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E3" t="n">
-        <v>-856146.6667592938</v>
+        <v>-889873.2077675653</v>
       </c>
     </row>
     <row r="4">
@@ -2169,16 +2169,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E4" t="n">
-        <v>-813068.4667592938</v>
+        <v>-846913.8077675654</v>
       </c>
     </row>
     <row r="5">
@@ -2186,16 +2186,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675655</v>
       </c>
       <c r="E5" t="n">
-        <v>-769990.2667592939</v>
+        <v>-803954.4077675653</v>
       </c>
     </row>
     <row r="6">
@@ -2203,16 +2203,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-259826.8927592938</v>
+        <v>-269851.9037675655</v>
       </c>
       <c r="E6" t="n">
-        <v>-629007.0667592938</v>
+        <v>-663360.0077675653</v>
       </c>
     </row>
     <row r="7">
@@ -2220,16 +2220,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-161921.8927592938</v>
+        <v>-172216.9037675655</v>
       </c>
       <c r="E7" t="n">
-        <v>-488023.8667592938</v>
+        <v>-522765.6077675653</v>
       </c>
     </row>
     <row r="8">
@@ -2237,16 +2237,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-64016.89275929378</v>
+        <v>-74581.90376756545</v>
       </c>
       <c r="E8" t="n">
-        <v>-347040.6667592938</v>
+        <v>-382171.2077675653</v>
       </c>
     </row>
     <row r="9">
@@ -2254,16 +2254,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E9" t="n">
-        <v>-206057.4667592938</v>
+        <v>-241576.8077675653</v>
       </c>
     </row>
     <row r="10">
@@ -2271,16 +2271,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E10" t="n">
-        <v>-162979.2667592938</v>
+        <v>-198617.4077675653</v>
       </c>
     </row>
     <row r="11">
@@ -2288,16 +2288,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E11" t="n">
-        <v>-119901.0667592938</v>
+        <v>-155658.0077675653</v>
       </c>
     </row>
     <row r="12">
@@ -2305,16 +2305,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E12" t="n">
-        <v>-76822.86675929381</v>
+        <v>-112698.6077675653</v>
       </c>
     </row>
     <row r="13">
@@ -2322,16 +2322,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E13" t="n">
-        <v>-33744.66675929382</v>
+        <v>-69739.20776756533</v>
       </c>
     </row>
     <row r="14">
@@ -2339,16 +2339,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E14" t="n">
-        <v>9333.533240706191</v>
+        <v>-26779.80776756532</v>
       </c>
     </row>
     <row r="15">
@@ -2356,16 +2356,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E15" t="n">
-        <v>52411.73324070619</v>
+        <v>16179.59223243468</v>
       </c>
     </row>
     <row r="16">
@@ -2373,16 +2373,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E16" t="n">
-        <v>95489.93324070619</v>
+        <v>59138.99223243469</v>
       </c>
     </row>
     <row r="17">
@@ -2390,16 +2390,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E17" t="n">
-        <v>138568.1332407062</v>
+        <v>102098.3922324347</v>
       </c>
     </row>
     <row r="18">
@@ -2407,16 +2407,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E18" t="n">
-        <v>181646.3332407062</v>
+        <v>145057.7922324347</v>
       </c>
     </row>
     <row r="19">
@@ -2424,16 +2424,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E19" t="n">
-        <v>224724.5332407062</v>
+        <v>188017.1922324347</v>
       </c>
     </row>
     <row r="20">
@@ -2441,16 +2441,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E20" t="n">
-        <v>267802.7332407062</v>
+        <v>230976.5922324347</v>
       </c>
     </row>
     <row r="21">
@@ -2458,16 +2458,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E21" t="n">
-        <v>310880.9332407062</v>
+        <v>273935.9922324347</v>
       </c>
     </row>
     <row r="22">
@@ -2475,16 +2475,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E22" t="n">
-        <v>353959.1332407062</v>
+        <v>316895.3922324348</v>
       </c>
     </row>
     <row r="23">
@@ -2492,16 +2492,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E23" t="n">
-        <v>397037.3332407062</v>
+        <v>359854.7922324347</v>
       </c>
     </row>
     <row r="24">
@@ -2509,16 +2509,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E24" t="n">
-        <v>440115.5332407062</v>
+        <v>402814.1922324348</v>
       </c>
     </row>
     <row r="25">
@@ -2526,16 +2526,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E25" t="n">
-        <v>483193.7332407062</v>
+        <v>445773.5922324348</v>
       </c>
     </row>
     <row r="26">
@@ -2543,16 +2543,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E26" t="n">
-        <v>526271.9332407062</v>
+        <v>488732.9922324347</v>
       </c>
     </row>
     <row r="27">
@@ -2560,16 +2560,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E27" t="n">
-        <v>569350.1332407062</v>
+        <v>531692.3922324347</v>
       </c>
     </row>
     <row r="28">
@@ -2577,16 +2577,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E28" t="n">
-        <v>612428.3332407062</v>
+        <v>574651.7922324346</v>
       </c>
     </row>
     <row r="29">
@@ -2594,16 +2594,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E29" t="n">
-        <v>655506.5332407062</v>
+        <v>617611.1922324346</v>
       </c>
     </row>
     <row r="30">
@@ -2611,16 +2611,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E30" t="n">
-        <v>698584.7332407061</v>
+        <v>660570.5922324347</v>
       </c>
     </row>
     <row r="31">
@@ -2628,16 +2628,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E31" t="n">
-        <v>741662.9332407062</v>
+        <v>703529.9922324347</v>
       </c>
     </row>
     <row r="32">
@@ -2645,16 +2645,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E32" t="n">
-        <v>784741.1332407062</v>
+        <v>746489.3922324347</v>
       </c>
     </row>
     <row r="33">
@@ -2662,16 +2662,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E33" t="n">
-        <v>827819.3332407062</v>
+        <v>789448.7922324346</v>
       </c>
     </row>
     <row r="34">
@@ -2679,16 +2679,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E34" t="n">
-        <v>870897.5332407062</v>
+        <v>832408.1922324346</v>
       </c>
     </row>
     <row r="35">
@@ -2696,16 +2696,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E35" t="n">
-        <v>913975.7332407061</v>
+        <v>875367.5922324347</v>
       </c>
     </row>
     <row r="36">
@@ -2713,16 +2713,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E36" t="n">
-        <v>957053.9332407062</v>
+        <v>918326.9922324347</v>
       </c>
     </row>
     <row r="37">
@@ -2730,16 +2730,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E37" t="n">
-        <v>1000132.133240706</v>
+        <v>961286.3922324347</v>
       </c>
     </row>
     <row r="38">
@@ -2747,16 +2747,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E38" t="n">
-        <v>1043210.333240706</v>
+        <v>1004245.792232435</v>
       </c>
     </row>
     <row r="39">
@@ -2764,16 +2764,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E39" t="n">
-        <v>1086288.533240706</v>
+        <v>1047205.192232435</v>
       </c>
     </row>
     <row r="40">
@@ -2781,16 +2781,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E40" t="n">
-        <v>1129366.733240706</v>
+        <v>1090164.592232435</v>
       </c>
     </row>
     <row r="41">
@@ -2798,16 +2798,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E41" t="n">
-        <v>1172444.933240706</v>
+        <v>1133123.992232435</v>
       </c>
     </row>
     <row r="42">
@@ -2815,16 +2815,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E42" t="n">
-        <v>1215523.133240706</v>
+        <v>1176083.392232435</v>
       </c>
     </row>
     <row r="43">
@@ -2832,16 +2832,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E43" t="n">
-        <v>1258601.333240706</v>
+        <v>1219042.792232435</v>
       </c>
     </row>
     <row r="44">
@@ -2849,16 +2849,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.533240706</v>
+        <v>1262002.192232435</v>
       </c>
     </row>
     <row r="45">
@@ -2866,16 +2866,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.733240706</v>
+        <v>1304961.592232435</v>
       </c>
     </row>
     <row r="46">
@@ -2883,16 +2883,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.933240706</v>
+        <v>1347920.992232435</v>
       </c>
     </row>
     <row r="47">
@@ -2900,16 +2900,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.133240706</v>
+        <v>1390880.392232435</v>
       </c>
     </row>
   </sheetData>
@@ -2963,16 +2963,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E2" t="n">
-        <v>-899224.8667592937</v>
+        <v>-932832.6077675653</v>
       </c>
     </row>
     <row r="3">
@@ -2980,16 +2980,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E3" t="n">
-        <v>-856146.6667592938</v>
+        <v>-889873.2077675653</v>
       </c>
     </row>
     <row r="4">
@@ -2997,16 +2997,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E4" t="n">
-        <v>-813068.4667592938</v>
+        <v>-846913.8077675654</v>
       </c>
     </row>
     <row r="5">
@@ -3014,16 +3014,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675655</v>
       </c>
       <c r="E5" t="n">
-        <v>-769990.2667592939</v>
+        <v>-803954.4077675653</v>
       </c>
     </row>
     <row r="6">
@@ -3031,16 +3031,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-259826.8927592938</v>
+        <v>-269851.9037675655</v>
       </c>
       <c r="E6" t="n">
-        <v>-629007.0667592938</v>
+        <v>-663360.0077675653</v>
       </c>
     </row>
     <row r="7">
@@ -3048,16 +3048,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-161921.8927592938</v>
+        <v>-172216.9037675655</v>
       </c>
       <c r="E7" t="n">
-        <v>-488023.8667592938</v>
+        <v>-522765.6077675653</v>
       </c>
     </row>
     <row r="8">
@@ -3065,16 +3065,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-64016.89275929378</v>
+        <v>-74581.90376756545</v>
       </c>
       <c r="E8" t="n">
-        <v>-347040.6667592938</v>
+        <v>-382171.2077675653</v>
       </c>
     </row>
     <row r="9">
@@ -3082,16 +3082,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E9" t="n">
-        <v>-206057.4667592938</v>
+        <v>-241576.8077675653</v>
       </c>
     </row>
     <row r="10">
@@ -3099,16 +3099,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E10" t="n">
-        <v>-162979.2667592938</v>
+        <v>-198617.4077675653</v>
       </c>
     </row>
     <row r="11">
@@ -3116,16 +3116,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E11" t="n">
-        <v>-119901.0667592938</v>
+        <v>-155658.0077675653</v>
       </c>
     </row>
     <row r="12">
@@ -3133,16 +3133,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E12" t="n">
-        <v>-76822.86675929381</v>
+        <v>-112698.6077675653</v>
       </c>
     </row>
     <row r="13">
@@ -3150,16 +3150,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E13" t="n">
-        <v>-33744.66675929382</v>
+        <v>-69739.20776756533</v>
       </c>
     </row>
     <row r="14">
@@ -3167,16 +3167,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E14" t="n">
-        <v>9333.533240706191</v>
+        <v>-26779.80776756532</v>
       </c>
     </row>
     <row r="15">
@@ -3184,16 +3184,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E15" t="n">
-        <v>52411.73324070619</v>
+        <v>16179.59223243468</v>
       </c>
     </row>
     <row r="16">
@@ -3201,16 +3201,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E16" t="n">
-        <v>95489.93324070619</v>
+        <v>59138.99223243469</v>
       </c>
     </row>
     <row r="17">
@@ -3218,16 +3218,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E17" t="n">
-        <v>138568.1332407062</v>
+        <v>102098.3922324347</v>
       </c>
     </row>
     <row r="18">
@@ -3235,16 +3235,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E18" t="n">
-        <v>181646.3332407062</v>
+        <v>145057.7922324347</v>
       </c>
     </row>
     <row r="19">
@@ -3252,16 +3252,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E19" t="n">
-        <v>224724.5332407062</v>
+        <v>188017.1922324347</v>
       </c>
     </row>
     <row r="20">
@@ -3269,16 +3269,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E20" t="n">
-        <v>267802.7332407062</v>
+        <v>230976.5922324347</v>
       </c>
     </row>
     <row r="21">
@@ -3286,16 +3286,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E21" t="n">
-        <v>310880.9332407062</v>
+        <v>273935.9922324347</v>
       </c>
     </row>
     <row r="22">
@@ -3303,16 +3303,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E22" t="n">
-        <v>353959.1332407062</v>
+        <v>316895.3922324348</v>
       </c>
     </row>
     <row r="23">
@@ -3320,16 +3320,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E23" t="n">
-        <v>397037.3332407062</v>
+        <v>359854.7922324347</v>
       </c>
     </row>
     <row r="24">
@@ -3337,16 +3337,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E24" t="n">
-        <v>440115.5332407062</v>
+        <v>402814.1922324348</v>
       </c>
     </row>
     <row r="25">
@@ -3354,16 +3354,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E25" t="n">
-        <v>483193.7332407062</v>
+        <v>445773.5922324348</v>
       </c>
     </row>
     <row r="26">
@@ -3371,16 +3371,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E26" t="n">
-        <v>526271.9332407062</v>
+        <v>488732.9922324347</v>
       </c>
     </row>
     <row r="27">
@@ -3388,16 +3388,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E27" t="n">
-        <v>569350.1332407062</v>
+        <v>531692.3922324347</v>
       </c>
     </row>
     <row r="28">
@@ -3405,16 +3405,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E28" t="n">
-        <v>612428.3332407062</v>
+        <v>574651.7922324346</v>
       </c>
     </row>
     <row r="29">
@@ -3422,16 +3422,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E29" t="n">
-        <v>655506.5332407062</v>
+        <v>617611.1922324346</v>
       </c>
     </row>
     <row r="30">
@@ -3439,16 +3439,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E30" t="n">
-        <v>698584.7332407061</v>
+        <v>660570.5922324347</v>
       </c>
     </row>
     <row r="31">
@@ -3456,16 +3456,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E31" t="n">
-        <v>741662.9332407062</v>
+        <v>703529.9922324347</v>
       </c>
     </row>
     <row r="32">
@@ -3473,16 +3473,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E32" t="n">
-        <v>784741.1332407062</v>
+        <v>746489.3922324347</v>
       </c>
     </row>
     <row r="33">
@@ -3490,16 +3490,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E33" t="n">
-        <v>827819.3332407062</v>
+        <v>789448.7922324346</v>
       </c>
     </row>
     <row r="34">
@@ -3507,16 +3507,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E34" t="n">
-        <v>870897.5332407062</v>
+        <v>832408.1922324346</v>
       </c>
     </row>
     <row r="35">
@@ -3524,16 +3524,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E35" t="n">
-        <v>913975.7332407061</v>
+        <v>875367.5922324347</v>
       </c>
     </row>
     <row r="36">
@@ -3541,16 +3541,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E36" t="n">
-        <v>957053.9332407062</v>
+        <v>918326.9922324347</v>
       </c>
     </row>
     <row r="37">
@@ -3558,16 +3558,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E37" t="n">
-        <v>1000132.133240706</v>
+        <v>961286.3922324347</v>
       </c>
     </row>
     <row r="38">
@@ -3575,16 +3575,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E38" t="n">
-        <v>1043210.333240706</v>
+        <v>1004245.792232435</v>
       </c>
     </row>
     <row r="39">
@@ -3592,16 +3592,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E39" t="n">
-        <v>1086288.533240706</v>
+        <v>1047205.192232435</v>
       </c>
     </row>
     <row r="40">
@@ -3609,16 +3609,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E40" t="n">
-        <v>1129366.733240706</v>
+        <v>1090164.592232435</v>
       </c>
     </row>
     <row r="41">
@@ -3626,16 +3626,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E41" t="n">
-        <v>1172444.933240706</v>
+        <v>1133123.992232435</v>
       </c>
     </row>
     <row r="42">
@@ -3643,16 +3643,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E42" t="n">
-        <v>1215523.133240706</v>
+        <v>1176083.392232435</v>
       </c>
     </row>
     <row r="43">
@@ -3660,16 +3660,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E43" t="n">
-        <v>1258601.333240706</v>
+        <v>1219042.792232435</v>
       </c>
     </row>
     <row r="44">
@@ -3677,16 +3677,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.533240706</v>
+        <v>1262002.192232435</v>
       </c>
     </row>
     <row r="45">
@@ -3694,16 +3694,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.733240706</v>
+        <v>1304961.592232435</v>
       </c>
     </row>
     <row r="46">
@@ -3711,16 +3711,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.933240706</v>
+        <v>1347920.992232435</v>
       </c>
     </row>
     <row r="47">
@@ -3728,16 +3728,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.133240706</v>
+        <v>1390880.392232435</v>
       </c>
     </row>
   </sheetData>
@@ -3791,16 +3791,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E2" t="n">
-        <v>-899224.8667592937</v>
+        <v>-932832.6077675653</v>
       </c>
     </row>
     <row r="3">
@@ -3808,16 +3808,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E3" t="n">
-        <v>-856146.6667592938</v>
+        <v>-889873.2077675653</v>
       </c>
     </row>
     <row r="4">
@@ -3825,16 +3825,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E4" t="n">
-        <v>-813068.4667592938</v>
+        <v>-846913.8077675654</v>
       </c>
     </row>
     <row r="5">
@@ -3842,16 +3842,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675655</v>
       </c>
       <c r="E5" t="n">
-        <v>-769990.2667592939</v>
+        <v>-803954.4077675653</v>
       </c>
     </row>
     <row r="6">
@@ -3859,16 +3859,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-259826.8927592938</v>
+        <v>-269851.9037675655</v>
       </c>
       <c r="E6" t="n">
-        <v>-629007.0667592938</v>
+        <v>-663360.0077675653</v>
       </c>
     </row>
     <row r="7">
@@ -3876,16 +3876,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-161921.8927592938</v>
+        <v>-172216.9037675655</v>
       </c>
       <c r="E7" t="n">
-        <v>-488023.8667592938</v>
+        <v>-522765.6077675653</v>
       </c>
     </row>
     <row r="8">
@@ -3893,16 +3893,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-64016.89275929378</v>
+        <v>-74581.90376756545</v>
       </c>
       <c r="E8" t="n">
-        <v>-347040.6667592938</v>
+        <v>-382171.2077675653</v>
       </c>
     </row>
     <row r="9">
@@ -3910,16 +3910,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E9" t="n">
-        <v>-206057.4667592938</v>
+        <v>-241576.8077675653</v>
       </c>
     </row>
     <row r="10">
@@ -3927,16 +3927,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E10" t="n">
-        <v>-162979.2667592938</v>
+        <v>-198617.4077675653</v>
       </c>
     </row>
     <row r="11">
@@ -3944,16 +3944,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E11" t="n">
-        <v>-119901.0667592938</v>
+        <v>-155658.0077675653</v>
       </c>
     </row>
     <row r="12">
@@ -3961,16 +3961,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E12" t="n">
-        <v>-76822.86675929381</v>
+        <v>-112698.6077675653</v>
       </c>
     </row>
     <row r="13">
@@ -3978,16 +3978,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E13" t="n">
-        <v>-33744.66675929382</v>
+        <v>-69739.20776756533</v>
       </c>
     </row>
     <row r="14">
@@ -3995,16 +3995,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E14" t="n">
-        <v>9333.533240706191</v>
+        <v>-26779.80776756532</v>
       </c>
     </row>
     <row r="15">
@@ -4012,16 +4012,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E15" t="n">
-        <v>52411.73324070619</v>
+        <v>16179.59223243468</v>
       </c>
     </row>
     <row r="16">
@@ -4029,16 +4029,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E16" t="n">
-        <v>95489.93324070619</v>
+        <v>59138.99223243469</v>
       </c>
     </row>
     <row r="17">
@@ -4046,16 +4046,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E17" t="n">
-        <v>138568.1332407062</v>
+        <v>102098.3922324347</v>
       </c>
     </row>
     <row r="18">
@@ -4063,16 +4063,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E18" t="n">
-        <v>181646.3332407062</v>
+        <v>145057.7922324347</v>
       </c>
     </row>
     <row r="19">
@@ -4080,16 +4080,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E19" t="n">
-        <v>224724.5332407062</v>
+        <v>188017.1922324347</v>
       </c>
     </row>
     <row r="20">
@@ -4097,16 +4097,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E20" t="n">
-        <v>267802.7332407062</v>
+        <v>230976.5922324347</v>
       </c>
     </row>
     <row r="21">
@@ -4114,16 +4114,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E21" t="n">
-        <v>310880.9332407062</v>
+        <v>273935.9922324347</v>
       </c>
     </row>
     <row r="22">
@@ -4131,16 +4131,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E22" t="n">
-        <v>353959.1332407062</v>
+        <v>316895.3922324348</v>
       </c>
     </row>
     <row r="23">
@@ -4148,16 +4148,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E23" t="n">
-        <v>397037.3332407062</v>
+        <v>359854.7922324347</v>
       </c>
     </row>
     <row r="24">
@@ -4165,16 +4165,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E24" t="n">
-        <v>440115.5332407062</v>
+        <v>402814.1922324348</v>
       </c>
     </row>
     <row r="25">
@@ -4182,16 +4182,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E25" t="n">
-        <v>483193.7332407062</v>
+        <v>445773.5922324348</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E26" t="n">
-        <v>526271.9332407062</v>
+        <v>488732.9922324347</v>
       </c>
     </row>
     <row r="27">
@@ -4216,16 +4216,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E27" t="n">
-        <v>569350.1332407062</v>
+        <v>531692.3922324347</v>
       </c>
     </row>
     <row r="28">
@@ -4233,16 +4233,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E28" t="n">
-        <v>612428.3332407062</v>
+        <v>574651.7922324346</v>
       </c>
     </row>
     <row r="29">
@@ -4250,16 +4250,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E29" t="n">
-        <v>655506.5332407062</v>
+        <v>617611.1922324346</v>
       </c>
     </row>
     <row r="30">
@@ -4267,16 +4267,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E30" t="n">
-        <v>698584.7332407061</v>
+        <v>660570.5922324347</v>
       </c>
     </row>
     <row r="31">
@@ -4284,16 +4284,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E31" t="n">
-        <v>741662.9332407062</v>
+        <v>703529.9922324347</v>
       </c>
     </row>
     <row r="32">
@@ -4301,16 +4301,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E32" t="n">
-        <v>784741.1332407062</v>
+        <v>746489.3922324347</v>
       </c>
     </row>
     <row r="33">
@@ -4318,16 +4318,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E33" t="n">
-        <v>827819.3332407062</v>
+        <v>789448.7922324346</v>
       </c>
     </row>
     <row r="34">
@@ -4335,16 +4335,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E34" t="n">
-        <v>870897.5332407062</v>
+        <v>832408.1922324346</v>
       </c>
     </row>
     <row r="35">
@@ -4352,16 +4352,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E35" t="n">
-        <v>913975.7332407061</v>
+        <v>875367.5922324347</v>
       </c>
     </row>
     <row r="36">
@@ -4369,16 +4369,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E36" t="n">
-        <v>957053.9332407062</v>
+        <v>918326.9922324347</v>
       </c>
     </row>
     <row r="37">
@@ -4386,16 +4386,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E37" t="n">
-        <v>1000132.133240706</v>
+        <v>961286.3922324347</v>
       </c>
     </row>
     <row r="38">
@@ -4403,16 +4403,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E38" t="n">
-        <v>1043210.333240706</v>
+        <v>1004245.792232435</v>
       </c>
     </row>
     <row r="39">
@@ -4420,16 +4420,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E39" t="n">
-        <v>1086288.533240706</v>
+        <v>1047205.192232435</v>
       </c>
     </row>
     <row r="40">
@@ -4437,16 +4437,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E40" t="n">
-        <v>1129366.733240706</v>
+        <v>1090164.592232435</v>
       </c>
     </row>
     <row r="41">
@@ -4454,16 +4454,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E41" t="n">
-        <v>1172444.933240706</v>
+        <v>1133123.992232435</v>
       </c>
     </row>
     <row r="42">
@@ -4471,16 +4471,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E42" t="n">
-        <v>1215523.133240706</v>
+        <v>1176083.392232435</v>
       </c>
     </row>
     <row r="43">
@@ -4488,16 +4488,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E43" t="n">
-        <v>1258601.333240706</v>
+        <v>1219042.792232435</v>
       </c>
     </row>
     <row r="44">
@@ -4505,16 +4505,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.533240706</v>
+        <v>1262002.192232435</v>
       </c>
     </row>
     <row r="45">
@@ -4522,16 +4522,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.733240706</v>
+        <v>1304961.592232435</v>
       </c>
     </row>
     <row r="46">
@@ -4539,16 +4539,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.933240706</v>
+        <v>1347920.992232435</v>
       </c>
     </row>
     <row r="47">
@@ -4556,16 +4556,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.133240706</v>
+        <v>1390880.392232435</v>
       </c>
     </row>
   </sheetData>
@@ -4619,16 +4619,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E2" t="n">
-        <v>-899224.8667592937</v>
+        <v>-932832.6077675653</v>
       </c>
     </row>
     <row r="3">
@@ -4636,16 +4636,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E3" t="n">
-        <v>-856146.6667592938</v>
+        <v>-889873.2077675653</v>
       </c>
     </row>
     <row r="4">
@@ -4653,16 +4653,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E4" t="n">
-        <v>-813068.4667592938</v>
+        <v>-846913.8077675654</v>
       </c>
     </row>
     <row r="5">
@@ -4670,16 +4670,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675655</v>
       </c>
       <c r="E5" t="n">
-        <v>-769990.2667592939</v>
+        <v>-803954.4077675653</v>
       </c>
     </row>
     <row r="6">
@@ -4687,16 +4687,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-259826.8927592938</v>
+        <v>-269851.9037675655</v>
       </c>
       <c r="E6" t="n">
-        <v>-629007.0667592938</v>
+        <v>-663360.0077675653</v>
       </c>
     </row>
     <row r="7">
@@ -4704,16 +4704,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-161921.8927592938</v>
+        <v>-172216.9037675655</v>
       </c>
       <c r="E7" t="n">
-        <v>-488023.8667592938</v>
+        <v>-522765.6077675653</v>
       </c>
     </row>
     <row r="8">
@@ -4721,16 +4721,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-64016.89275929378</v>
+        <v>-74581.90376756545</v>
       </c>
       <c r="E8" t="n">
-        <v>-347040.6667592938</v>
+        <v>-382171.2077675653</v>
       </c>
     </row>
     <row r="9">
@@ -4738,16 +4738,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E9" t="n">
-        <v>-206057.4667592938</v>
+        <v>-241576.8077675653</v>
       </c>
     </row>
     <row r="10">
@@ -4755,16 +4755,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E10" t="n">
-        <v>-162979.2667592938</v>
+        <v>-198617.4077675653</v>
       </c>
     </row>
     <row r="11">
@@ -4772,16 +4772,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E11" t="n">
-        <v>-119901.0667592938</v>
+        <v>-155658.0077675653</v>
       </c>
     </row>
     <row r="12">
@@ -4789,16 +4789,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E12" t="n">
-        <v>-76822.86675929381</v>
+        <v>-112698.6077675653</v>
       </c>
     </row>
     <row r="13">
@@ -4806,16 +4806,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E13" t="n">
-        <v>-33744.66675929382</v>
+        <v>-69739.20776756533</v>
       </c>
     </row>
     <row r="14">
@@ -4823,16 +4823,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E14" t="n">
-        <v>9333.533240706191</v>
+        <v>-26779.80776756532</v>
       </c>
     </row>
     <row r="15">
@@ -4840,16 +4840,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E15" t="n">
-        <v>52411.73324070619</v>
+        <v>16179.59223243468</v>
       </c>
     </row>
     <row r="16">
@@ -4857,16 +4857,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E16" t="n">
-        <v>95489.93324070619</v>
+        <v>59138.99223243469</v>
       </c>
     </row>
     <row r="17">
@@ -4874,16 +4874,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E17" t="n">
-        <v>138568.1332407062</v>
+        <v>102098.3922324347</v>
       </c>
     </row>
     <row r="18">
@@ -4891,16 +4891,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E18" t="n">
-        <v>181646.3332407062</v>
+        <v>145057.7922324347</v>
       </c>
     </row>
     <row r="19">
@@ -4908,16 +4908,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E19" t="n">
-        <v>224724.5332407062</v>
+        <v>188017.1922324347</v>
       </c>
     </row>
     <row r="20">
@@ -4925,16 +4925,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E20" t="n">
-        <v>267802.7332407062</v>
+        <v>230976.5922324347</v>
       </c>
     </row>
     <row r="21">
@@ -4942,16 +4942,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E21" t="n">
-        <v>310880.9332407062</v>
+        <v>273935.9922324347</v>
       </c>
     </row>
     <row r="22">
@@ -4959,16 +4959,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E22" t="n">
-        <v>353959.1332407062</v>
+        <v>316895.3922324348</v>
       </c>
     </row>
     <row r="23">
@@ -4976,16 +4976,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E23" t="n">
-        <v>397037.3332407062</v>
+        <v>359854.7922324347</v>
       </c>
     </row>
     <row r="24">
@@ -4993,16 +4993,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E24" t="n">
-        <v>440115.5332407062</v>
+        <v>402814.1922324348</v>
       </c>
     </row>
     <row r="25">
@@ -5010,16 +5010,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E25" t="n">
-        <v>483193.7332407062</v>
+        <v>445773.5922324348</v>
       </c>
     </row>
     <row r="26">
@@ -5027,16 +5027,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E26" t="n">
-        <v>526271.9332407062</v>
+        <v>488732.9922324347</v>
       </c>
     </row>
     <row r="27">
@@ -5044,16 +5044,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E27" t="n">
-        <v>569350.1332407062</v>
+        <v>531692.3922324347</v>
       </c>
     </row>
     <row r="28">
@@ -5061,16 +5061,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E28" t="n">
-        <v>612428.3332407062</v>
+        <v>574651.7922324346</v>
       </c>
     </row>
     <row r="29">
@@ -5078,16 +5078,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E29" t="n">
-        <v>655506.5332407062</v>
+        <v>617611.1922324346</v>
       </c>
     </row>
     <row r="30">
@@ -5095,16 +5095,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E30" t="n">
-        <v>698584.7332407061</v>
+        <v>660570.5922324347</v>
       </c>
     </row>
     <row r="31">
@@ -5112,16 +5112,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E31" t="n">
-        <v>741662.9332407062</v>
+        <v>703529.9922324347</v>
       </c>
     </row>
     <row r="32">
@@ -5129,16 +5129,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E32" t="n">
-        <v>784741.1332407062</v>
+        <v>746489.3922324347</v>
       </c>
     </row>
     <row r="33">
@@ -5146,16 +5146,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E33" t="n">
-        <v>827819.3332407062</v>
+        <v>789448.7922324346</v>
       </c>
     </row>
     <row r="34">
@@ -5163,16 +5163,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E34" t="n">
-        <v>870897.5332407062</v>
+        <v>832408.1922324346</v>
       </c>
     </row>
     <row r="35">
@@ -5180,16 +5180,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E35" t="n">
-        <v>913975.7332407061</v>
+        <v>875367.5922324347</v>
       </c>
     </row>
     <row r="36">
@@ -5197,16 +5197,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E36" t="n">
-        <v>957053.9332407062</v>
+        <v>918326.9922324347</v>
       </c>
     </row>
     <row r="37">
@@ -5214,16 +5214,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E37" t="n">
-        <v>1000132.133240706</v>
+        <v>961286.3922324347</v>
       </c>
     </row>
     <row r="38">
@@ -5231,16 +5231,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E38" t="n">
-        <v>1043210.333240706</v>
+        <v>1004245.792232435</v>
       </c>
     </row>
     <row r="39">
@@ -5248,16 +5248,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E39" t="n">
-        <v>1086288.533240706</v>
+        <v>1047205.192232435</v>
       </c>
     </row>
     <row r="40">
@@ -5265,16 +5265,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E40" t="n">
-        <v>1129366.733240706</v>
+        <v>1090164.592232435</v>
       </c>
     </row>
     <row r="41">
@@ -5282,16 +5282,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E41" t="n">
-        <v>1172444.933240706</v>
+        <v>1133123.992232435</v>
       </c>
     </row>
     <row r="42">
@@ -5299,16 +5299,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E42" t="n">
-        <v>1215523.133240706</v>
+        <v>1176083.392232435</v>
       </c>
     </row>
     <row r="43">
@@ -5316,16 +5316,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E43" t="n">
-        <v>1258601.333240706</v>
+        <v>1219042.792232435</v>
       </c>
     </row>
     <row r="44">
@@ -5333,16 +5333,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.533240706</v>
+        <v>1262002.192232435</v>
       </c>
     </row>
     <row r="45">
@@ -5350,16 +5350,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.733240706</v>
+        <v>1304961.592232435</v>
       </c>
     </row>
     <row r="46">
@@ -5367,16 +5367,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.933240706</v>
+        <v>1347920.992232435</v>
       </c>
     </row>
     <row r="47">
@@ -5384,16 +5384,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.133240706</v>
+        <v>1390880.392232435</v>
       </c>
     </row>
   </sheetData>
@@ -5447,16 +5447,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E2" t="n">
-        <v>-899224.8667592937</v>
+        <v>-932832.6077675653</v>
       </c>
     </row>
     <row r="3">
@@ -5464,16 +5464,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E3" t="n">
-        <v>-856146.6667592938</v>
+        <v>-889873.2077675653</v>
       </c>
     </row>
     <row r="4">
@@ -5481,16 +5481,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E4" t="n">
-        <v>-813068.4667592938</v>
+        <v>-846913.8077675654</v>
       </c>
     </row>
     <row r="5">
@@ -5498,16 +5498,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675655</v>
       </c>
       <c r="E5" t="n">
-        <v>-769990.2667592939</v>
+        <v>-803954.4077675653</v>
       </c>
     </row>
     <row r="6">
@@ -5515,16 +5515,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-259826.8927592938</v>
+        <v>-269851.9037675655</v>
       </c>
       <c r="E6" t="n">
-        <v>-629007.0667592938</v>
+        <v>-663360.0077675653</v>
       </c>
     </row>
     <row r="7">
@@ -5532,16 +5532,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-161921.8927592938</v>
+        <v>-172216.9037675655</v>
       </c>
       <c r="E7" t="n">
-        <v>-488023.8667592938</v>
+        <v>-522765.6077675653</v>
       </c>
     </row>
     <row r="8">
@@ -5549,16 +5549,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-64016.89275929378</v>
+        <v>-74581.90376756545</v>
       </c>
       <c r="E8" t="n">
-        <v>-347040.6667592938</v>
+        <v>-382171.2077675653</v>
       </c>
     </row>
     <row r="9">
@@ -5566,16 +5566,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E9" t="n">
-        <v>-206057.4667592938</v>
+        <v>-241576.8077675653</v>
       </c>
     </row>
     <row r="10">
@@ -5583,16 +5583,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E10" t="n">
-        <v>-162979.2667592938</v>
+        <v>-198617.4077675653</v>
       </c>
     </row>
     <row r="11">
@@ -5600,16 +5600,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E11" t="n">
-        <v>-119901.0667592938</v>
+        <v>-155658.0077675653</v>
       </c>
     </row>
     <row r="12">
@@ -5617,16 +5617,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E12" t="n">
-        <v>-76822.86675929381</v>
+        <v>-112698.6077675653</v>
       </c>
     </row>
     <row r="13">
@@ -5634,16 +5634,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E13" t="n">
-        <v>-33744.66675929382</v>
+        <v>-69739.20776756533</v>
       </c>
     </row>
     <row r="14">
@@ -5651,16 +5651,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E14" t="n">
-        <v>9333.533240706191</v>
+        <v>-26779.80776756532</v>
       </c>
     </row>
     <row r="15">
@@ -5668,16 +5668,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E15" t="n">
-        <v>52411.73324070619</v>
+        <v>16179.59223243468</v>
       </c>
     </row>
     <row r="16">
@@ -5685,16 +5685,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E16" t="n">
-        <v>95489.93324070619</v>
+        <v>59138.99223243469</v>
       </c>
     </row>
     <row r="17">
@@ -5702,16 +5702,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E17" t="n">
-        <v>138568.1332407062</v>
+        <v>102098.3922324347</v>
       </c>
     </row>
     <row r="18">
@@ -5719,16 +5719,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E18" t="n">
-        <v>181646.3332407062</v>
+        <v>145057.7922324347</v>
       </c>
     </row>
     <row r="19">
@@ -5736,16 +5736,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E19" t="n">
-        <v>224724.5332407062</v>
+        <v>188017.1922324347</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E20" t="n">
-        <v>267802.7332407062</v>
+        <v>230976.5922324347</v>
       </c>
     </row>
     <row r="21">
@@ -5770,16 +5770,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E21" t="n">
-        <v>310880.9332407062</v>
+        <v>273935.9922324347</v>
       </c>
     </row>
     <row r="22">
@@ -5787,16 +5787,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E22" t="n">
-        <v>353959.1332407062</v>
+        <v>316895.3922324348</v>
       </c>
     </row>
     <row r="23">
@@ -5804,16 +5804,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E23" t="n">
-        <v>397037.3332407062</v>
+        <v>359854.7922324347</v>
       </c>
     </row>
     <row r="24">
@@ -5821,16 +5821,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E24" t="n">
-        <v>440115.5332407062</v>
+        <v>402814.1922324348</v>
       </c>
     </row>
     <row r="25">
@@ -5838,16 +5838,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E25" t="n">
-        <v>483193.7332407062</v>
+        <v>445773.5922324348</v>
       </c>
     </row>
     <row r="26">
@@ -5855,16 +5855,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E26" t="n">
-        <v>526271.9332407062</v>
+        <v>488732.9922324347</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E27" t="n">
-        <v>569350.1332407062</v>
+        <v>531692.3922324347</v>
       </c>
     </row>
     <row r="28">
@@ -5889,16 +5889,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E28" t="n">
-        <v>612428.3332407062</v>
+        <v>574651.7922324346</v>
       </c>
     </row>
     <row r="29">
@@ -5906,16 +5906,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E29" t="n">
-        <v>655506.5332407062</v>
+        <v>617611.1922324346</v>
       </c>
     </row>
     <row r="30">
@@ -5923,16 +5923,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E30" t="n">
-        <v>698584.7332407061</v>
+        <v>660570.5922324347</v>
       </c>
     </row>
     <row r="31">
@@ -5940,16 +5940,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E31" t="n">
-        <v>741662.9332407062</v>
+        <v>703529.9922324347</v>
       </c>
     </row>
     <row r="32">
@@ -5957,16 +5957,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E32" t="n">
-        <v>784741.1332407062</v>
+        <v>746489.3922324347</v>
       </c>
     </row>
     <row r="33">
@@ -5974,16 +5974,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E33" t="n">
-        <v>827819.3332407062</v>
+        <v>789448.7922324346</v>
       </c>
     </row>
     <row r="34">
@@ -5991,16 +5991,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E34" t="n">
-        <v>870897.5332407062</v>
+        <v>832408.1922324346</v>
       </c>
     </row>
     <row r="35">
@@ -6008,16 +6008,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E35" t="n">
-        <v>913975.7332407061</v>
+        <v>875367.5922324347</v>
       </c>
     </row>
     <row r="36">
@@ -6025,16 +6025,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E36" t="n">
-        <v>957053.9332407062</v>
+        <v>918326.9922324347</v>
       </c>
     </row>
     <row r="37">
@@ -6042,16 +6042,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E37" t="n">
-        <v>1000132.133240706</v>
+        <v>961286.3922324347</v>
       </c>
     </row>
     <row r="38">
@@ -6059,16 +6059,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E38" t="n">
-        <v>1043210.333240706</v>
+        <v>1004245.792232435</v>
       </c>
     </row>
     <row r="39">
@@ -6076,16 +6076,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E39" t="n">
-        <v>1086288.533240706</v>
+        <v>1047205.192232435</v>
       </c>
     </row>
     <row r="40">
@@ -6093,16 +6093,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E40" t="n">
-        <v>1129366.733240706</v>
+        <v>1090164.592232435</v>
       </c>
     </row>
     <row r="41">
@@ -6110,16 +6110,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E41" t="n">
-        <v>1172444.933240706</v>
+        <v>1133123.992232435</v>
       </c>
     </row>
     <row r="42">
@@ -6127,16 +6127,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E42" t="n">
-        <v>1215523.133240706</v>
+        <v>1176083.392232435</v>
       </c>
     </row>
     <row r="43">
@@ -6144,16 +6144,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E43" t="n">
-        <v>1258601.333240706</v>
+        <v>1219042.792232435</v>
       </c>
     </row>
     <row r="44">
@@ -6161,16 +6161,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.533240706</v>
+        <v>1262002.192232435</v>
       </c>
     </row>
     <row r="45">
@@ -6178,16 +6178,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.733240706</v>
+        <v>1304961.592232435</v>
       </c>
     </row>
     <row r="46">
@@ -6195,16 +6195,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.933240706</v>
+        <v>1347920.992232435</v>
       </c>
     </row>
     <row r="47">
@@ -6212,16 +6212,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.133240706</v>
+        <v>1390880.392232435</v>
       </c>
     </row>
   </sheetData>
@@ -6275,16 +6275,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>-541492.9739999999</v>
+        <v>-565345.7039999999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E2" t="n">
-        <v>-899224.8667592937</v>
+        <v>-932832.6077675653</v>
       </c>
     </row>
     <row r="3">
@@ -6292,16 +6292,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>-498414.774</v>
+        <v>-522386.3039999999</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E3" t="n">
-        <v>-856146.6667592938</v>
+        <v>-889873.2077675653</v>
       </c>
     </row>
     <row r="4">
@@ -6309,16 +6309,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>-455336.574</v>
+        <v>-479426.9039999999</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675654</v>
       </c>
       <c r="E4" t="n">
-        <v>-813068.4667592938</v>
+        <v>-846913.8077675654</v>
       </c>
     </row>
     <row r="5">
@@ -6326,16 +6326,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>-412258.374</v>
+        <v>-436467.5039999998</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-357731.8927592938</v>
+        <v>-367486.9037675655</v>
       </c>
       <c r="E5" t="n">
-        <v>-769990.2667592939</v>
+        <v>-803954.4077675653</v>
       </c>
     </row>
     <row r="6">
@@ -6343,16 +6343,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>-369180.174</v>
+        <v>-393508.1039999999</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-259826.8927592938</v>
+        <v>-269851.9037675655</v>
       </c>
       <c r="E6" t="n">
-        <v>-629007.0667592938</v>
+        <v>-663360.0077675653</v>
       </c>
     </row>
     <row r="7">
@@ -6360,16 +6360,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>-326101.974</v>
+        <v>-350548.7039999999</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-161921.8927592938</v>
+        <v>-172216.9037675655</v>
       </c>
       <c r="E7" t="n">
-        <v>-488023.8667592938</v>
+        <v>-522765.6077675653</v>
       </c>
     </row>
     <row r="8">
@@ -6377,16 +6377,16 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>-283023.774</v>
+        <v>-307589.3039999998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-64016.89275929378</v>
+        <v>-74581.90376756545</v>
       </c>
       <c r="E8" t="n">
-        <v>-347040.6667592938</v>
+        <v>-382171.2077675653</v>
       </c>
     </row>
     <row r="9">
@@ -6394,16 +6394,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-239945.574</v>
+        <v>-264629.9039999999</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E9" t="n">
-        <v>-206057.4667592938</v>
+        <v>-241576.8077675653</v>
       </c>
     </row>
     <row r="10">
@@ -6411,16 +6411,16 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>-196867.374</v>
+        <v>-221670.5039999999</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E10" t="n">
-        <v>-162979.2667592938</v>
+        <v>-198617.4077675653</v>
       </c>
     </row>
     <row r="11">
@@ -6428,16 +6428,16 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>-153789.174</v>
+        <v>-178711.1039999999</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E11" t="n">
-        <v>-119901.0667592938</v>
+        <v>-155658.0077675653</v>
       </c>
     </row>
     <row r="12">
@@ -6445,16 +6445,16 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>-110710.974</v>
+        <v>-135751.7039999999</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E12" t="n">
-        <v>-76822.86675929381</v>
+        <v>-112698.6077675653</v>
       </c>
     </row>
     <row r="13">
@@ -6462,16 +6462,16 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>-67632.77400000002</v>
+        <v>-92792.30399999986</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E13" t="n">
-        <v>-33744.66675929382</v>
+        <v>-69739.20776756533</v>
       </c>
     </row>
     <row r="14">
@@ -6479,16 +6479,16 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>-24554.57400000001</v>
+        <v>-49832.90399999986</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E14" t="n">
-        <v>9333.533240706191</v>
+        <v>-26779.80776756532</v>
       </c>
     </row>
     <row r="15">
@@ -6496,16 +6496,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>18523.62599999999</v>
+        <v>-6873.503999999853</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E15" t="n">
-        <v>52411.73324070619</v>
+        <v>16179.59223243468</v>
       </c>
     </row>
     <row r="16">
@@ -6513,16 +6513,16 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>61601.82599999999</v>
+        <v>36085.89600000015</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E16" t="n">
-        <v>95489.93324070619</v>
+        <v>59138.99223243469</v>
       </c>
     </row>
     <row r="17">
@@ -6530,16 +6530,16 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>104680.026</v>
+        <v>79045.29600000015</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E17" t="n">
-        <v>138568.1332407062</v>
+        <v>102098.3922324347</v>
       </c>
     </row>
     <row r="18">
@@ -6547,16 +6547,16 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>147758.226</v>
+        <v>122004.6960000001</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E18" t="n">
-        <v>181646.3332407062</v>
+        <v>145057.7922324347</v>
       </c>
     </row>
     <row r="19">
@@ -6564,16 +6564,16 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>190836.426</v>
+        <v>164964.0960000002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E19" t="n">
-        <v>224724.5332407062</v>
+        <v>188017.1922324347</v>
       </c>
     </row>
     <row r="20">
@@ -6581,16 +6581,16 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>233914.626</v>
+        <v>207923.4960000002</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E20" t="n">
-        <v>267802.7332407062</v>
+        <v>230976.5922324347</v>
       </c>
     </row>
     <row r="21">
@@ -6598,16 +6598,16 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>276992.826</v>
+        <v>250882.8960000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E21" t="n">
-        <v>310880.9332407062</v>
+        <v>273935.9922324347</v>
       </c>
     </row>
     <row r="22">
@@ -6615,16 +6615,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>320071.026</v>
+        <v>293842.2960000002</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E22" t="n">
-        <v>353959.1332407062</v>
+        <v>316895.3922324348</v>
       </c>
     </row>
     <row r="23">
@@ -6632,16 +6632,16 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>363149.226</v>
+        <v>336801.6960000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E23" t="n">
-        <v>397037.3332407062</v>
+        <v>359854.7922324347</v>
       </c>
     </row>
     <row r="24">
@@ -6649,16 +6649,16 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>406227.426</v>
+        <v>379761.0960000002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E24" t="n">
-        <v>440115.5332407062</v>
+        <v>402814.1922324348</v>
       </c>
     </row>
     <row r="25">
@@ -6666,16 +6666,16 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>449305.626</v>
+        <v>422720.4960000002</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E25" t="n">
-        <v>483193.7332407062</v>
+        <v>445773.5922324348</v>
       </c>
     </row>
     <row r="26">
@@ -6683,16 +6683,16 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>492383.826</v>
+        <v>465679.8960000002</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E26" t="n">
-        <v>526271.9332407062</v>
+        <v>488732.9922324347</v>
       </c>
     </row>
     <row r="27">
@@ -6700,16 +6700,16 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>535462.026</v>
+        <v>508639.2960000002</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E27" t="n">
-        <v>569350.1332407062</v>
+        <v>531692.3922324347</v>
       </c>
     </row>
     <row r="28">
@@ -6717,16 +6717,16 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>578540.226</v>
+        <v>551598.6960000001</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E28" t="n">
-        <v>612428.3332407062</v>
+        <v>574651.7922324346</v>
       </c>
     </row>
     <row r="29">
@@ -6734,16 +6734,16 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>621618.426</v>
+        <v>594558.0960000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E29" t="n">
-        <v>655506.5332407062</v>
+        <v>617611.1922324346</v>
       </c>
     </row>
     <row r="30">
@@ -6751,16 +6751,16 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>664696.6259999999</v>
+        <v>637517.4960000002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E30" t="n">
-        <v>698584.7332407061</v>
+        <v>660570.5922324347</v>
       </c>
     </row>
     <row r="31">
@@ -6768,16 +6768,16 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>707774.826</v>
+        <v>680476.8960000002</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E31" t="n">
-        <v>741662.9332407062</v>
+        <v>703529.9922324347</v>
       </c>
     </row>
     <row r="32">
@@ -6785,16 +6785,16 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>750853.026</v>
+        <v>723436.2960000002</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E32" t="n">
-        <v>784741.1332407062</v>
+        <v>746489.3922324347</v>
       </c>
     </row>
     <row r="33">
@@ -6802,16 +6802,16 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>793931.226</v>
+        <v>766395.6960000001</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E33" t="n">
-        <v>827819.3332407062</v>
+        <v>789448.7922324346</v>
       </c>
     </row>
     <row r="34">
@@ -6819,16 +6819,16 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>837009.426</v>
+        <v>809355.0960000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E34" t="n">
-        <v>870897.5332407062</v>
+        <v>832408.1922324346</v>
       </c>
     </row>
     <row r="35">
@@ -6836,16 +6836,16 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>880087.6259999999</v>
+        <v>852314.4960000002</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E35" t="n">
-        <v>913975.7332407061</v>
+        <v>875367.5922324347</v>
       </c>
     </row>
     <row r="36">
@@ -6853,16 +6853,16 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>923165.826</v>
+        <v>895273.8960000002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E36" t="n">
-        <v>957053.9332407062</v>
+        <v>918326.9922324347</v>
       </c>
     </row>
     <row r="37">
@@ -6870,16 +6870,16 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>966244.026</v>
+        <v>938233.2960000002</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E37" t="n">
-        <v>1000132.133240706</v>
+        <v>961286.3922324347</v>
       </c>
     </row>
     <row r="38">
@@ -6887,16 +6887,16 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1009322.226</v>
+        <v>981192.6960000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E38" t="n">
-        <v>1043210.333240706</v>
+        <v>1004245.792232435</v>
       </c>
     </row>
     <row r="39">
@@ -6904,16 +6904,16 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1052400.426</v>
+        <v>1024152.096</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E39" t="n">
-        <v>1086288.533240706</v>
+        <v>1047205.192232435</v>
       </c>
     </row>
     <row r="40">
@@ -6921,16 +6921,16 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1095478.626</v>
+        <v>1067111.496</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E40" t="n">
-        <v>1129366.733240706</v>
+        <v>1090164.592232435</v>
       </c>
     </row>
     <row r="41">
@@ -6938,16 +6938,16 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>1138556.826</v>
+        <v>1110070.896</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E41" t="n">
-        <v>1172444.933240706</v>
+        <v>1133123.992232435</v>
       </c>
     </row>
     <row r="42">
@@ -6955,16 +6955,16 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>1181635.026</v>
+        <v>1153030.296</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E42" t="n">
-        <v>1215523.133240706</v>
+        <v>1176083.392232435</v>
       </c>
     </row>
     <row r="43">
@@ -6972,16 +6972,16 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>1224713.226</v>
+        <v>1195989.696</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E43" t="n">
-        <v>1258601.333240706</v>
+        <v>1219042.792232435</v>
       </c>
     </row>
     <row r="44">
@@ -6989,16 +6989,16 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1267791.426</v>
+        <v>1238949.096</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E44" t="n">
-        <v>1301679.533240706</v>
+        <v>1262002.192232435</v>
       </c>
     </row>
     <row r="45">
@@ -7006,16 +7006,16 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>1310869.626</v>
+        <v>1281908.496</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E45" t="n">
-        <v>1344757.733240706</v>
+        <v>1304961.592232435</v>
       </c>
     </row>
     <row r="46">
@@ -7023,16 +7023,16 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>1353947.826</v>
+        <v>1324867.896</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E46" t="n">
-        <v>1387835.933240706</v>
+        <v>1347920.992232435</v>
       </c>
     </row>
     <row r="47">
@@ -7040,16 +7040,16 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>1397026.026</v>
+        <v>1367827.296</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>33888.1072407062</v>
+        <v>23053.09623243454</v>
       </c>
       <c r="E47" t="n">
-        <v>1430914.133240706</v>
+        <v>1390880.392232435</v>
       </c>
     </row>
   </sheetData>
